--- a/state_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
+++ b/state_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U119"/>
+  <dimension ref="A1:U142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.852470474979523</v>
+        <v>0.852422891483785</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
@@ -651,7 +651,7 @@
         <v>0.016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0219852348913699</v>
+        <v>0.0219879584517876</v>
       </c>
       <c r="H3" t="n">
         <v>0.161</v>
@@ -732,7 +732,7 @@
         <v>0.016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0219852348913699</v>
+        <v>0.0219879584517876</v>
       </c>
       <c r="H4" t="n">
         <v>0.161</v>
@@ -813,10 +813,10 @@
         <v>440</v>
       </c>
       <c r="G5" t="n">
-        <v>1389.60625269884</v>
+        <v>1392.68693548958</v>
       </c>
       <c r="H5" t="n">
-        <v>15392.9188876406</v>
+        <v>15550.0337099685</v>
       </c>
       <c r="I5" t="n">
         <v>8326.6</v>
@@ -898,10 +898,10 @@
         <v>440</v>
       </c>
       <c r="G6" t="n">
-        <v>1389.60625269884</v>
+        <v>1392.68693548958</v>
       </c>
       <c r="H6" t="n">
-        <v>15392.9188876406</v>
+        <v>15550.0337099685</v>
       </c>
       <c r="I6" t="n">
         <v>8326.6</v>
@@ -983,10 +983,10 @@
         <v>440</v>
       </c>
       <c r="G7" t="n">
-        <v>1389.60625269884</v>
+        <v>1392.68693548958</v>
       </c>
       <c r="H7" t="n">
-        <v>15392.9188876406</v>
+        <v>15550.0337099685</v>
       </c>
       <c r="I7" t="n">
         <v>8326.6</v>
@@ -1068,10 +1068,10 @@
         <v>440</v>
       </c>
       <c r="G8" t="n">
-        <v>1389.60625269884</v>
+        <v>1392.68693548958</v>
       </c>
       <c r="H8" t="n">
-        <v>15392.9188876406</v>
+        <v>15550.0337099685</v>
       </c>
       <c r="I8" t="n">
         <v>8326.6</v>
@@ -1153,7 +1153,7 @@
         <v>0.00792</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0342370518595879</v>
+        <v>0.0343032438657827</v>
       </c>
       <c r="H9" t="n">
         <v>0.4241150551937</v>
@@ -1164,7 +1164,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00315</v>
+        <v>0.00329</v>
       </c>
       <c r="M9" t="n">
         <v>0.05255</v>
@@ -1234,7 +1234,7 @@
         <v>0.00792</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0342370518595879</v>
+        <v>0.0343032438657827</v>
       </c>
       <c r="H10" t="n">
         <v>0.4241150551937</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00315</v>
+        <v>0.00329</v>
       </c>
       <c r="M10" t="n">
         <v>0.05255</v>
@@ -1315,7 +1315,7 @@
         <v>0.1572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.220040963753151</v>
+        <v>0.22007712063839</v>
       </c>
       <c r="H11" t="n">
         <v>0.9295</v>
@@ -1326,7 +1326,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.00204</v>
+        <v>0.00236</v>
       </c>
       <c r="M11" t="n">
         <v>0.41633</v>
@@ -1396,7 +1396,7 @@
         <v>0.1572</v>
       </c>
       <c r="G12" t="n">
-        <v>0.220040963753151</v>
+        <v>0.22007712063839</v>
       </c>
       <c r="H12" t="n">
         <v>0.9295</v>
@@ -1407,7 +1407,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.00204</v>
+        <v>0.00236</v>
       </c>
       <c r="M12" t="n">
         <v>0.41633</v>
@@ -1470,16 +1470,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.188</v>
+        <v>0.1883</v>
       </c>
       <c r="G13" t="n">
-        <v>0.278910137399149</v>
+        <v>0.279002565463925</v>
       </c>
       <c r="H13" t="n">
         <v>1.07</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9635</v>
+        <v>0.96397</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
         <v>0.5664400000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>0.89512</v>
+        <v>0.895</v>
       </c>
       <c r="O13" t="n">
         <v>1819553.54</v>
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.188</v>
+        <v>0.1883</v>
       </c>
       <c r="G14" t="n">
-        <v>0.278910137399149</v>
+        <v>0.279002565463925</v>
       </c>
       <c r="H14" t="n">
         <v>1.07</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9635</v>
+        <v>0.96397</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
         <v>0.5664400000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>0.89512</v>
+        <v>0.895</v>
       </c>
       <c r="O14" t="n">
         <v>1819553.54</v>
@@ -1917,12 +1917,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Visual Clarity (Sediment class 2)</t>
+          <t>Chlorophyll A (83rd Percentile)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1936,27 +1936,27 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.4</v>
+        <v>60</v>
       </c>
       <c r="G19" t="n">
-        <v>0.705281114007909</v>
+        <v>69.6780612244898</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7</v>
+        <v>245</v>
       </c>
       <c r="I19" t="n">
-        <v>2.325</v>
+        <v>205.25</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.59</v>
+        <v>38.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.4906</v>
+        <v>125</v>
       </c>
       <c r="N19" t="n">
-        <v>1.944</v>
+        <v>171.1</v>
       </c>
       <c r="O19" t="n">
         <v>1819553.54</v>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg chl-a /m2</t>
         </is>
       </c>
     </row>
@@ -1998,12 +1998,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DRP (95th Percentile)</t>
+          <t>Visual Clarity (Sediment class 2)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2017,27 +2017,27 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.016</v>
+        <v>0.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0219196203249476</v>
+        <v>0.7052428150967049</v>
       </c>
       <c r="H20" t="n">
-        <v>0.161</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
-        <v>0.054</v>
+        <v>2.325</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.017</v>
+        <v>0.59</v>
       </c>
       <c r="M20" t="n">
-        <v>0.029</v>
+        <v>1.4906</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0417</v>
+        <v>1.944</v>
       </c>
       <c r="O20" t="n">
         <v>1819553.54</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DRP (Median)</t>
+          <t>DRP (95th Percentile)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2101,7 +2101,7 @@
         <v>0.016</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0219196203249476</v>
+        <v>0.0219226368286413</v>
       </c>
       <c r="H21" t="n">
         <v>0.161</v>
@@ -2160,12 +2160,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>E coli (&gt;260)</t>
+          <t>DRP (Median)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2179,31 +2179,27 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>529</v>
+        <v>0.016</v>
       </c>
       <c r="G22" t="n">
-        <v>1901.99864812734</v>
+        <v>0.0219226368286413</v>
       </c>
       <c r="H22" t="n">
-        <v>28000</v>
+        <v>0.161</v>
       </c>
       <c r="I22" t="n">
-        <v>9966</v>
-      </c>
-      <c r="J22" t="n">
-        <v>48.3333333333333</v>
-      </c>
-      <c r="K22" t="n">
-        <v>73.3333333333333</v>
-      </c>
+        <v>0.054</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>512</v>
+        <v>0.017</v>
       </c>
       <c r="M22" t="n">
-        <v>1710.9</v>
+        <v>0.029</v>
       </c>
       <c r="N22" t="n">
-        <v>6390</v>
+        <v>0.0417</v>
       </c>
       <c r="O22" t="n">
         <v>1819553.54</v>
@@ -2233,7 +2229,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>% exceedances over 260/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2241,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E coli (&gt;540)</t>
+          <t>E coli (&gt;260)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2267,7 +2263,7 @@
         <v>529</v>
       </c>
       <c r="G23" t="n">
-        <v>1901.99864812734</v>
+        <v>1904.61722849948</v>
       </c>
       <c r="H23" t="n">
         <v>28000</v>
@@ -2318,7 +2314,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>% exceedances over 540/100 mL</t>
+          <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2326,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>E coli (Median)</t>
+          <t>E coli (&gt;540)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2352,7 +2348,7 @@
         <v>529</v>
       </c>
       <c r="G24" t="n">
-        <v>1901.99864812734</v>
+        <v>1904.61722849948</v>
       </c>
       <c r="H24" t="n">
         <v>28000</v>
@@ -2403,7 +2399,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2411,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>E coli (95th Percentile)</t>
+          <t>E coli (Median)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2437,7 +2433,7 @@
         <v>529</v>
       </c>
       <c r="G25" t="n">
-        <v>1901.99864812734</v>
+        <v>1904.61722849948</v>
       </c>
       <c r="H25" t="n">
         <v>28000</v>
@@ -2500,12 +2496,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
+          <t>E coli (95th Percentile)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2519,27 +2515,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.00878</v>
+        <v>529</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0457416963384659</v>
+        <v>1904.61722849948</v>
       </c>
       <c r="H26" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.26102</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>9966</v>
+      </c>
+      <c r="J26" t="n">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="K26" t="n">
+        <v>73.3333333333333</v>
+      </c>
       <c r="L26" t="n">
-        <v>0.00843</v>
+        <v>512</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04739</v>
+        <v>1710.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.10827</v>
+        <v>6390</v>
       </c>
       <c r="O26" t="n">
         <v>1819553.54</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (Median)</t>
+          <t>Ammoniacal-N (95th Percentile)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2603,7 +2603,7 @@
         <v>0.00878</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0457416963384659</v>
+        <v>0.0457985982385281</v>
       </c>
       <c r="H27" t="n">
         <v>0.861295420989555</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nitrate-N (95th Percentile)</t>
+          <t>Ammoniacal-N (Median)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2681,27 +2681,27 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.18305</v>
+        <v>0.00878</v>
       </c>
       <c r="G28" t="n">
-        <v>0.237706485856845</v>
+        <v>0.0457985982385281</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9295</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7801</v>
+        <v>0.26102</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.0055</v>
+        <v>0.00843</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4621</v>
+        <v>0.04739</v>
       </c>
       <c r="N28" t="n">
-        <v>0.73146</v>
+        <v>0.10827</v>
       </c>
       <c r="O28" t="n">
         <v>1819553.54</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nitrate-N (Median)</t>
+          <t>Nitrate-N (95th Percentile)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2765,7 +2765,7 @@
         <v>0.18305</v>
       </c>
       <c r="G29" t="n">
-        <v>0.237706485856845</v>
+        <v>0.237737219209298</v>
       </c>
       <c r="H29" t="n">
         <v>0.9295</v>
@@ -2824,10 +2824,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>2013 - 2017</t>
@@ -2839,27 +2843,27 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.2575</v>
+        <v>0.18305</v>
       </c>
       <c r="G30" t="n">
-        <v>0.323490283455943</v>
+        <v>0.237737219209298</v>
       </c>
       <c r="H30" t="n">
-        <v>1.6</v>
+        <v>0.9295</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0025</v>
+        <v>0.7801</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.0205</v>
+        <v>0.0055</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6086</v>
+        <v>0.4621</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9052</v>
+        <v>0.73146</v>
       </c>
       <c r="O30" t="n">
         <v>1819553.54</v>
@@ -2889,7 +2893,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2905,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2916,16 +2920,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.2575</v>
+        <v>0.25775</v>
       </c>
       <c r="G31" t="n">
-        <v>0.323490283455943</v>
+        <v>0.323573847311003</v>
       </c>
       <c r="H31" t="n">
         <v>1.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0025</v>
+        <v>1.0026</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2936,7 +2940,7 @@
         <v>0.6086</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9052</v>
+        <v>0.9051399999999999</v>
       </c>
       <c r="O31" t="n">
         <v>1819553.54</v>
@@ -2978,7 +2982,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Total Nitrogen (95th Percentile)</t>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2993,27 +2997,27 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8285</v>
+        <v>0.25775</v>
       </c>
       <c r="G32" t="n">
-        <v>0.994516666666667</v>
+        <v>0.323573847311003</v>
       </c>
       <c r="H32" t="n">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9775</v>
+        <v>1.0026</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.703</v>
+        <v>0.0205</v>
       </c>
       <c r="M32" t="n">
-        <v>1.2512</v>
+        <v>0.6086</v>
       </c>
       <c r="N32" t="n">
-        <v>1.604</v>
+        <v>0.9051399999999999</v>
       </c>
       <c r="O32" t="n">
         <v>1819553.54</v>
@@ -3055,7 +3059,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Total Nitrogen (Median)</t>
+          <t>Total Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -3132,7 +3136,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Total Phosphorus (95th Percentile)</t>
+          <t>Total Nitrogen (Median)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -3147,27 +3151,27 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8285</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0919</v>
+        <v>0.994516666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0.291</v>
+        <v>2.65</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2245</v>
+        <v>1.9775</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.703</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1386</v>
+        <v>1.2512</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2091</v>
+        <v>1.604</v>
       </c>
       <c r="O34" t="n">
         <v>1819553.54</v>
@@ -3209,7 +3213,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Phosphorus (Median)</t>
+          <t>Total Phosphorus (95th Percentile)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -3286,17 +3290,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Visual Clarity (Sediment class 2)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2013 - 2017</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3305,27 +3305,27 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.558968631368601</v>
+        <v>0.0919</v>
       </c>
       <c r="H36" t="n">
-        <v>2.7</v>
+        <v>0.291</v>
       </c>
       <c r="I36" t="n">
-        <v>1.815</v>
+        <v>0.2245</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.38</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1653</v>
+        <v>0.1386</v>
       </c>
       <c r="N36" t="n">
-        <v>1.648</v>
+        <v>0.2091</v>
       </c>
       <c r="O36" t="n">
         <v>1819553.54</v>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DRP (95th Percentile)</t>
+          <t>Chlorophyll A (83rd Percentile)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3386,27 +3386,27 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.016</v>
+        <v>65</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0196196203249476</v>
+        <v>79.2145</v>
       </c>
       <c r="H37" t="n">
-        <v>0.161</v>
+        <v>245</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0415</v>
+        <v>205</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.017</v>
+        <v>50.5</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0253</v>
+        <v>145</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0318</v>
+        <v>187.5</v>
       </c>
       <c r="O37" t="n">
         <v>1819553.54</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg chl-a /m2</t>
         </is>
       </c>
     </row>
@@ -3448,12 +3448,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DRP (Median)</t>
+          <t>Visual Clarity (Sediment class 2)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3467,27 +3467,27 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.016</v>
+        <v>0.32</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0196196203249476</v>
+        <v>0.558935221680104</v>
       </c>
       <c r="H38" t="n">
-        <v>0.161</v>
+        <v>2.7</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0415</v>
+        <v>1.815</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.017</v>
+        <v>0.38</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0253</v>
+        <v>1.1653</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0318</v>
+        <v>1.648</v>
       </c>
       <c r="O38" t="n">
         <v>1819553.54</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3529,12 +3529,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>E coli (&gt;260)</t>
+          <t>DRP (95th Percentile)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3548,31 +3548,27 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>560</v>
+        <v>0.016</v>
       </c>
       <c r="G39" t="n">
-        <v>1961.58005045553</v>
+        <v>0.0196226368286413</v>
       </c>
       <c r="H39" t="n">
-        <v>28000</v>
+        <v>0.161</v>
       </c>
       <c r="I39" t="n">
-        <v>12499.44207</v>
-      </c>
-      <c r="J39" t="n">
-        <v>50</v>
-      </c>
-      <c r="K39" t="n">
-        <v>71.6666666666667</v>
-      </c>
+        <v>0.0415</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>595</v>
+        <v>0.017</v>
       </c>
       <c r="M39" t="n">
-        <v>1360</v>
+        <v>0.0253</v>
       </c>
       <c r="N39" t="n">
-        <v>6390</v>
+        <v>0.0318</v>
       </c>
       <c r="O39" t="n">
         <v>1819553.54</v>
@@ -3602,7 +3598,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>% exceedances over 260/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3614,12 +3610,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>E coli (&gt;540)</t>
+          <t>DRP (Median)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -3633,31 +3629,27 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>560</v>
+        <v>0.016</v>
       </c>
       <c r="G40" t="n">
-        <v>1961.58005045553</v>
+        <v>0.0196226368286413</v>
       </c>
       <c r="H40" t="n">
-        <v>28000</v>
+        <v>0.161</v>
       </c>
       <c r="I40" t="n">
-        <v>12499.44207</v>
-      </c>
-      <c r="J40" t="n">
-        <v>50</v>
-      </c>
-      <c r="K40" t="n">
-        <v>71.6666666666667</v>
-      </c>
+        <v>0.0415</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>595</v>
+        <v>0.017</v>
       </c>
       <c r="M40" t="n">
-        <v>1360</v>
+        <v>0.0253</v>
       </c>
       <c r="N40" t="n">
-        <v>6390</v>
+        <v>0.0318</v>
       </c>
       <c r="O40" t="n">
         <v>1819553.54</v>
@@ -3687,7 +3679,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>% exceedances over 540/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3691,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>E coli (Median)</t>
+          <t>E coli (&gt;260)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3721,13 +3713,13 @@
         <v>560</v>
       </c>
       <c r="G41" t="n">
-        <v>1961.58005045553</v>
+        <v>1952.27785494254</v>
       </c>
       <c r="H41" t="n">
         <v>28000</v>
       </c>
       <c r="I41" t="n">
-        <v>12499.44207</v>
+        <v>12141.81879</v>
       </c>
       <c r="J41" t="n">
         <v>50</v>
@@ -3772,7 +3764,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E coli (95th Percentile)</t>
+          <t>E coli (&gt;540)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3806,13 +3798,13 @@
         <v>560</v>
       </c>
       <c r="G42" t="n">
-        <v>1961.58005045553</v>
+        <v>1952.27785494254</v>
       </c>
       <c r="H42" t="n">
         <v>28000</v>
       </c>
       <c r="I42" t="n">
-        <v>12499.44207</v>
+        <v>12141.81879</v>
       </c>
       <c r="J42" t="n">
         <v>50</v>
@@ -3857,7 +3849,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3861,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
+          <t>E coli (Median)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3888,27 +3880,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.009860000000000001</v>
+        <v>560</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0368496055780053</v>
+        <v>1952.27785494254</v>
       </c>
       <c r="H43" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I43" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>12141.81879</v>
+      </c>
+      <c r="J43" t="n">
+        <v>50</v>
+      </c>
+      <c r="K43" t="n">
+        <v>71.6666666666667</v>
+      </c>
       <c r="L43" t="n">
-        <v>0.00619</v>
+        <v>595</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02029</v>
+        <v>1360</v>
       </c>
       <c r="N43" t="n">
-        <v>0.08402</v>
+        <v>6390</v>
       </c>
       <c r="O43" t="n">
         <v>1819553.54</v>
@@ -3938,7 +3934,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3950,12 +3946,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (Median)</t>
+          <t>E coli (95th Percentile)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3969,27 +3965,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.009860000000000001</v>
+        <v>560</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0368496055780053</v>
+        <v>1952.27785494254</v>
       </c>
       <c r="H44" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I44" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>12141.81879</v>
+      </c>
+      <c r="J44" t="n">
+        <v>50</v>
+      </c>
+      <c r="K44" t="n">
+        <v>71.6666666666667</v>
+      </c>
       <c r="L44" t="n">
-        <v>0.00619</v>
+        <v>595</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02029</v>
+        <v>1360</v>
       </c>
       <c r="N44" t="n">
-        <v>0.08402</v>
+        <v>6390</v>
       </c>
       <c r="O44" t="n">
         <v>1819553.54</v>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nitrate-N (95th Percentile)</t>
+          <t>Ammoniacal-N (95th Percentile)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -4050,27 +4050,27 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.2247</v>
+        <v>0.01</v>
       </c>
       <c r="G45" t="n">
-        <v>0.240936916313622</v>
+        <v>0.0369575501618595</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8439</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I45" t="n">
-        <v>0.767</v>
+        <v>0.17</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.0055</v>
+        <v>0.0063</v>
       </c>
       <c r="M45" t="n">
-        <v>0.4377</v>
+        <v>0.02029</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6472</v>
+        <v>0.08402</v>
       </c>
       <c r="O45" t="n">
         <v>1819553.54</v>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nitrate-N (Median)</t>
+          <t>Ammoniacal-N (Median)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4131,27 +4131,27 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.2247</v>
+        <v>0.01</v>
       </c>
       <c r="G46" t="n">
-        <v>0.240936916313622</v>
+        <v>0.0369575501618595</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8439</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I46" t="n">
-        <v>0.767</v>
+        <v>0.17</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.0055</v>
+        <v>0.0063</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4377</v>
+        <v>0.02029</v>
       </c>
       <c r="N46" t="n">
-        <v>0.6472</v>
+        <v>0.08402</v>
       </c>
       <c r="O46" t="n">
         <v>1819553.54</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -4193,10 +4193,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -4208,27 +4212,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.2725</v>
+        <v>0.2247</v>
       </c>
       <c r="G47" t="n">
-        <v>0.312814243915549</v>
+        <v>0.241008195001138</v>
       </c>
       <c r="H47" t="n">
-        <v>1.6</v>
+        <v>0.8439</v>
       </c>
       <c r="I47" t="n">
-        <v>0.898</v>
+        <v>0.767</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.025</v>
+        <v>0.0055</v>
       </c>
       <c r="M47" t="n">
-        <v>0.535</v>
+        <v>0.4377</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8002</v>
+        <v>0.6472</v>
       </c>
       <c r="O47" t="n">
         <v>1819553.54</v>
@@ -4258,7 +4262,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -4270,10 +4274,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -4285,27 +4293,27 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.2725</v>
+        <v>0.2247</v>
       </c>
       <c r="G48" t="n">
-        <v>0.312814243915549</v>
+        <v>0.241008195001138</v>
       </c>
       <c r="H48" t="n">
-        <v>1.6</v>
+        <v>0.8439</v>
       </c>
       <c r="I48" t="n">
-        <v>0.898</v>
+        <v>0.767</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.025</v>
+        <v>0.0055</v>
       </c>
       <c r="M48" t="n">
-        <v>0.535</v>
+        <v>0.4377</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8002</v>
+        <v>0.6472</v>
       </c>
       <c r="O48" t="n">
         <v>1819553.54</v>
@@ -4335,7 +4343,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -4347,7 +4355,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Total Nitrogen (95th Percentile)</t>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -4362,27 +4370,27 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.86</v>
+        <v>0.2725</v>
       </c>
       <c r="G49" t="n">
-        <v>0.970083333333333</v>
+        <v>0.312941787303887</v>
       </c>
       <c r="H49" t="n">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="I49" t="n">
-        <v>1.6</v>
+        <v>0.8979</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.705</v>
+        <v>0.0251</v>
       </c>
       <c r="M49" t="n">
-        <v>1.24</v>
+        <v>0.535</v>
       </c>
       <c r="N49" t="n">
-        <v>1.5235</v>
+        <v>0.8002899999999999</v>
       </c>
       <c r="O49" t="n">
         <v>1819553.54</v>
@@ -4424,7 +4432,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Total Nitrogen (Median)</t>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -4439,27 +4447,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.86</v>
+        <v>0.2725</v>
       </c>
       <c r="G50" t="n">
-        <v>0.970083333333333</v>
+        <v>0.312941787303887</v>
       </c>
       <c r="H50" t="n">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="I50" t="n">
-        <v>1.6</v>
+        <v>0.8979</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.705</v>
+        <v>0.0251</v>
       </c>
       <c r="M50" t="n">
-        <v>1.24</v>
+        <v>0.535</v>
       </c>
       <c r="N50" t="n">
-        <v>1.5235</v>
+        <v>0.8002899999999999</v>
       </c>
       <c r="O50" t="n">
         <v>1819553.54</v>
@@ -4501,7 +4509,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Total Phosphorus (95th Percentile)</t>
+          <t>Total Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -4516,27 +4524,27 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0875666666666667</v>
+        <v>0.970083333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>0.291</v>
+        <v>2.65</v>
       </c>
       <c r="I51" t="n">
-        <v>0.209</v>
+        <v>1.6</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.705</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1253</v>
+        <v>1.24</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1779</v>
+        <v>1.5235</v>
       </c>
       <c r="O51" t="n">
         <v>1819553.54</v>
@@ -4578,7 +4586,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Total Phosphorus (Median)</t>
+          <t>Total Nitrogen (Median)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -4593,27 +4601,27 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0875666666666667</v>
+        <v>0.970083333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>0.291</v>
+        <v>2.65</v>
       </c>
       <c r="I52" t="n">
-        <v>0.209</v>
+        <v>1.6</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.705</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1253</v>
+        <v>1.24</v>
       </c>
       <c r="N52" t="n">
-        <v>0.1779</v>
+        <v>1.5235</v>
       </c>
       <c r="O52" t="n">
         <v>1819553.54</v>
@@ -4655,17 +4663,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Visual Clarity (Sediment class 2)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2015 - 2019</t>
+          <t>2014 - 2018</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4674,27 +4678,27 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.275</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.33301251605534</v>
+        <v>0.0875666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1.18</v>
+        <v>0.291</v>
       </c>
       <c r="I53" t="n">
-        <v>1.048</v>
+        <v>0.209</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.29</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>0.5688</v>
+        <v>0.1253</v>
       </c>
       <c r="N53" t="n">
-        <v>0.9542</v>
+        <v>0.1779</v>
       </c>
       <c r="O53" t="n">
         <v>1819553.54</v>
@@ -4724,7 +4728,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4736,17 +4740,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2015 - 2019</t>
+          <t>2014 - 2018</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4755,27 +4755,27 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.017</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0211196203249476</v>
+        <v>0.0875666666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>0.161</v>
+        <v>0.291</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0415</v>
+        <v>0.209</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.0195</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0269</v>
+        <v>0.1253</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0357</v>
+        <v>0.1779</v>
       </c>
       <c r="O54" t="n">
         <v>1819553.54</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DRP (Median)</t>
+          <t>Chlorophyll A (83rd Percentile)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4836,27 +4836,27 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.017</v>
+        <v>65</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0211196203249476</v>
+        <v>82.1270408163265</v>
       </c>
       <c r="H55" t="n">
-        <v>0.161</v>
+        <v>245</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0415</v>
+        <v>205.25</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.0195</v>
+        <v>62.5</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0269</v>
+        <v>151.7</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0357</v>
+        <v>187.9</v>
       </c>
       <c r="O55" t="n">
         <v>1819553.54</v>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg chl-a /m2</t>
         </is>
       </c>
     </row>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>E coli (&gt;260)</t>
+          <t>Visual Clarity (Sediment class 2)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4917,31 +4917,27 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>630</v>
+        <v>0.275</v>
       </c>
       <c r="G56" t="n">
-        <v>2200.11338378886</v>
+        <v>0.332975129022974</v>
       </c>
       <c r="H56" t="n">
-        <v>28000</v>
+        <v>1.18</v>
       </c>
       <c r="I56" t="n">
-        <v>12499.44207</v>
-      </c>
-      <c r="J56" t="n">
-        <v>56.6666666666667</v>
-      </c>
-      <c r="K56" t="n">
-        <v>76.6666666666667</v>
-      </c>
+        <v>1.048</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>457</v>
+        <v>0.29</v>
       </c>
       <c r="M56" t="n">
-        <v>2090</v>
+        <v>0.5688</v>
       </c>
       <c r="N56" t="n">
-        <v>8860</v>
+        <v>0.9542</v>
       </c>
       <c r="O56" t="n">
         <v>1819553.54</v>
@@ -4971,7 +4967,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>% exceedances over 260/100 mL</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4983,12 +4979,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>E coli (&gt;540)</t>
+          <t>DRP (95th Percentile)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5002,31 +4998,27 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>630</v>
+        <v>0.017</v>
       </c>
       <c r="G57" t="n">
-        <v>2200.11338378886</v>
+        <v>0.0211226368286413</v>
       </c>
       <c r="H57" t="n">
-        <v>28000</v>
+        <v>0.161</v>
       </c>
       <c r="I57" t="n">
-        <v>12499.44207</v>
-      </c>
-      <c r="J57" t="n">
-        <v>56.6666666666667</v>
-      </c>
-      <c r="K57" t="n">
-        <v>76.6666666666667</v>
-      </c>
+        <v>0.0415</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>457</v>
+        <v>0.0195</v>
       </c>
       <c r="M57" t="n">
-        <v>2090</v>
+        <v>0.0269</v>
       </c>
       <c r="N57" t="n">
-        <v>8860</v>
+        <v>0.0357</v>
       </c>
       <c r="O57" t="n">
         <v>1819553.54</v>
@@ -5056,7 +5048,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>% exceedances over 540/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5068,12 +5060,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>E coli (Median)</t>
+          <t>DRP (Median)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5087,31 +5079,27 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>630</v>
+        <v>0.017</v>
       </c>
       <c r="G58" t="n">
-        <v>2200.11338378886</v>
+        <v>0.0211226368286413</v>
       </c>
       <c r="H58" t="n">
-        <v>28000</v>
+        <v>0.161</v>
       </c>
       <c r="I58" t="n">
-        <v>12499.44207</v>
-      </c>
-      <c r="J58" t="n">
-        <v>56.6666666666667</v>
-      </c>
-      <c r="K58" t="n">
-        <v>76.6666666666667</v>
-      </c>
+        <v>0.0415</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>457</v>
+        <v>0.0195</v>
       </c>
       <c r="M58" t="n">
-        <v>2090</v>
+        <v>0.0269</v>
       </c>
       <c r="N58" t="n">
-        <v>8860</v>
+        <v>0.0357</v>
       </c>
       <c r="O58" t="n">
         <v>1819553.54</v>
@@ -5141,7 +5129,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5141,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>E coli (95th Percentile)</t>
+          <t>E coli (&gt;260)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5175,13 +5163,13 @@
         <v>630</v>
       </c>
       <c r="G59" t="n">
-        <v>2200.11338378886</v>
+        <v>2190.81118827587</v>
       </c>
       <c r="H59" t="n">
         <v>28000</v>
       </c>
       <c r="I59" t="n">
-        <v>12499.44207</v>
+        <v>12141.81879</v>
       </c>
       <c r="J59" t="n">
         <v>56.6666666666667</v>
@@ -5226,7 +5214,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
     </row>
@@ -5238,12 +5226,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
+          <t>E coli (&gt;540)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5257,27 +5245,31 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.0111</v>
+        <v>630</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0438966483805351</v>
+        <v>2190.81118827587</v>
       </c>
       <c r="H60" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I60" t="n">
-        <v>0.26141</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>12141.81879</v>
+      </c>
+      <c r="J60" t="n">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="K60" t="n">
+        <v>76.6666666666667</v>
+      </c>
       <c r="L60" t="n">
-        <v>0.01009</v>
+        <v>457</v>
       </c>
       <c r="M60" t="n">
-        <v>0.02421</v>
+        <v>2090</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1018</v>
+        <v>8860</v>
       </c>
       <c r="O60" t="n">
         <v>1819553.54</v>
@@ -5307,7 +5299,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
     </row>
@@ -5319,12 +5311,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (Median)</t>
+          <t>E coli (Median)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5338,27 +5330,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.0111</v>
+        <v>630</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0438966483805351</v>
+        <v>2190.81118827587</v>
       </c>
       <c r="H61" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I61" t="n">
-        <v>0.26141</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>12141.81879</v>
+      </c>
+      <c r="J61" t="n">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="K61" t="n">
+        <v>76.6666666666667</v>
+      </c>
       <c r="L61" t="n">
-        <v>0.01009</v>
+        <v>457</v>
       </c>
       <c r="M61" t="n">
-        <v>0.02421</v>
+        <v>2090</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1018</v>
+        <v>8860</v>
       </c>
       <c r="O61" t="n">
         <v>1819553.54</v>
@@ -5388,7 +5384,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -5400,12 +5396,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nitrate-N (95th Percentile)</t>
+          <t>E coli (95th Percentile)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5419,27 +5415,31 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.2375</v>
+        <v>630</v>
       </c>
       <c r="G62" t="n">
-        <v>0.26243810511352</v>
+        <v>2190.81118827587</v>
       </c>
       <c r="H62" t="n">
-        <v>1.14</v>
+        <v>28000</v>
       </c>
       <c r="I62" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>12141.81879</v>
+      </c>
+      <c r="J62" t="n">
+        <v>56.6666666666667</v>
+      </c>
+      <c r="K62" t="n">
+        <v>76.6666666666667</v>
+      </c>
       <c r="L62" t="n">
-        <v>0.00584</v>
+        <v>457</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4985</v>
+        <v>2090</v>
       </c>
       <c r="N62" t="n">
-        <v>0.6472</v>
+        <v>8860</v>
       </c>
       <c r="O62" t="n">
         <v>1819553.54</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -5481,12 +5481,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nitrate-N (Median)</t>
+          <t>Ammoniacal-N (95th Percentile)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5500,27 +5500,27 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.2375</v>
+        <v>0.0111</v>
       </c>
       <c r="G63" t="n">
-        <v>0.26243810511352</v>
+        <v>0.0440218878255916</v>
       </c>
       <c r="H63" t="n">
-        <v>1.14</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I63" t="n">
-        <v>0.767</v>
+        <v>0.26141</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00584</v>
+        <v>0.01009</v>
       </c>
       <c r="M63" t="n">
-        <v>0.4985</v>
+        <v>0.02463</v>
       </c>
       <c r="N63" t="n">
-        <v>0.6472</v>
+        <v>0.1018</v>
       </c>
       <c r="O63" t="n">
         <v>1819553.54</v>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -5562,10 +5562,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -5577,27 +5581,27 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.2775</v>
+        <v>0.0111</v>
       </c>
       <c r="G64" t="n">
-        <v>0.33711744966646</v>
+        <v>0.0440218878255916</v>
       </c>
       <c r="H64" t="n">
-        <v>1.6</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I64" t="n">
-        <v>0.993</v>
+        <v>0.26141</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0235</v>
+        <v>0.01009</v>
       </c>
       <c r="M64" t="n">
-        <v>0.608</v>
+        <v>0.02463</v>
       </c>
       <c r="N64" t="n">
-        <v>0.8002</v>
+        <v>0.1018</v>
       </c>
       <c r="O64" t="n">
         <v>1819553.54</v>
@@ -5627,7 +5631,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -5639,10 +5643,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -5654,27 +5662,27 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.2775</v>
+        <v>0.2375</v>
       </c>
       <c r="G65" t="n">
-        <v>0.33711744966646</v>
+        <v>0.262561622287307</v>
       </c>
       <c r="H65" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="I65" t="n">
-        <v>0.993</v>
+        <v>0.767</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0235</v>
+        <v>0.00636</v>
       </c>
       <c r="M65" t="n">
-        <v>0.608</v>
+        <v>0.4985</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8002</v>
+        <v>0.6472</v>
       </c>
       <c r="O65" t="n">
         <v>1819553.54</v>
@@ -5704,7 +5712,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -5716,10 +5724,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -5731,27 +5743,27 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.87</v>
+        <v>0.2375</v>
       </c>
       <c r="G66" t="n">
-        <v>0.99775</v>
+        <v>0.262561622287307</v>
       </c>
       <c r="H66" t="n">
-        <v>2.65</v>
+        <v>1.14</v>
       </c>
       <c r="I66" t="n">
-        <v>1.715</v>
+        <v>0.767</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.76</v>
+        <v>0.00636</v>
       </c>
       <c r="M66" t="n">
-        <v>1.243</v>
+        <v>0.4985</v>
       </c>
       <c r="N66" t="n">
-        <v>1.604</v>
+        <v>0.6472</v>
       </c>
       <c r="O66" t="n">
         <v>1819553.54</v>
@@ -5781,7 +5793,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5805,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Total Nitrogen (Median)</t>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -5808,27 +5820,27 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.87</v>
+        <v>0.2775</v>
       </c>
       <c r="G67" t="n">
-        <v>0.99775</v>
+        <v>0.337288924702123</v>
       </c>
       <c r="H67" t="n">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="I67" t="n">
-        <v>1.715</v>
+        <v>0.993</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.76</v>
+        <v>0.0235</v>
       </c>
       <c r="M67" t="n">
-        <v>1.243</v>
+        <v>0.608</v>
       </c>
       <c r="N67" t="n">
-        <v>1.604</v>
+        <v>0.8002899999999999</v>
       </c>
       <c r="O67" t="n">
         <v>1819553.54</v>
@@ -5870,7 +5882,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Total Phosphorus (95th Percentile)</t>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -5885,27 +5897,27 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.0745</v>
+        <v>0.2775</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09375</v>
+        <v>0.337288924702123</v>
       </c>
       <c r="H68" t="n">
-        <v>0.291</v>
+        <v>1.6</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2385</v>
+        <v>0.993</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.0755</v>
+        <v>0.0235</v>
       </c>
       <c r="M68" t="n">
-        <v>0.1272</v>
+        <v>0.608</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1865</v>
+        <v>0.8002899999999999</v>
       </c>
       <c r="O68" t="n">
         <v>1819553.54</v>
@@ -5947,7 +5959,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Total Phosphorus (Median)</t>
+          <t>Total Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -5962,27 +5974,27 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.0745</v>
+        <v>0.87</v>
       </c>
       <c r="G69" t="n">
-        <v>0.09375</v>
+        <v>0.99775</v>
       </c>
       <c r="H69" t="n">
-        <v>0.291</v>
+        <v>2.65</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2385</v>
+        <v>1.715</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.0755</v>
+        <v>0.76</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1272</v>
+        <v>1.243</v>
       </c>
       <c r="N69" t="n">
-        <v>0.1865</v>
+        <v>1.604</v>
       </c>
       <c r="O69" t="n">
         <v>1819553.54</v>
@@ -6024,17 +6036,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Visual Clarity (Sediment class 2)</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2015 - 2019</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6043,27 +6051,27 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.275</v>
+        <v>0.87</v>
       </c>
       <c r="G70" t="n">
-        <v>0.313394736842105</v>
+        <v>0.99775</v>
       </c>
       <c r="H70" t="n">
-        <v>0.98</v>
+        <v>2.65</v>
       </c>
       <c r="I70" t="n">
-        <v>0.918</v>
+        <v>1.715</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.29</v>
+        <v>0.76</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4806</v>
+        <v>1.243</v>
       </c>
       <c r="N70" t="n">
-        <v>0.7944</v>
+        <v>1.604</v>
       </c>
       <c r="O70" t="n">
         <v>1819553.54</v>
@@ -6093,7 +6101,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -6105,17 +6113,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2015 - 2019</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6124,27 +6128,27 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.018</v>
+        <v>0.0745</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0208843596524891</v>
+        <v>0.09375</v>
       </c>
       <c r="H71" t="n">
-        <v>0.076</v>
+        <v>0.291</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04155</v>
+        <v>0.2385</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>0.0215</v>
+        <v>0.0755</v>
       </c>
       <c r="M71" t="n">
-        <v>0.03041</v>
+        <v>0.1272</v>
       </c>
       <c r="N71" t="n">
-        <v>0.04</v>
+        <v>0.1865</v>
       </c>
       <c r="O71" t="n">
         <v>1819553.54</v>
@@ -6174,7 +6178,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -6186,17 +6190,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2015 - 2019</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6205,27 +6205,27 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.018</v>
+        <v>0.0745</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0208843596524891</v>
+        <v>0.09375</v>
       </c>
       <c r="H72" t="n">
-        <v>0.076</v>
+        <v>0.291</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04155</v>
+        <v>0.2385</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
-        <v>0.0215</v>
+        <v>0.0755</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03041</v>
+        <v>0.1272</v>
       </c>
       <c r="N72" t="n">
-        <v>0.04</v>
+        <v>0.1865</v>
       </c>
       <c r="O72" t="n">
         <v>1819553.54</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>E coli (&gt;260)</t>
+          <t>Chlorophyll A (83rd Percentile)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -6286,31 +6286,27 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>650</v>
+        <v>52.5</v>
       </c>
       <c r="G73" t="n">
-        <v>2304.79327164969</v>
+        <v>70.0145</v>
       </c>
       <c r="H73" t="n">
-        <v>28000</v>
+        <v>210</v>
       </c>
       <c r="I73" t="n">
-        <v>12549.49786</v>
-      </c>
-      <c r="J73" t="n">
-        <v>55.9322033898305</v>
-      </c>
-      <c r="K73" t="n">
-        <v>76.27118644067799</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>485</v>
+        <v>42</v>
       </c>
       <c r="M73" t="n">
-        <v>2770</v>
+        <v>120</v>
       </c>
       <c r="N73" t="n">
-        <v>9084</v>
+        <v>182.5</v>
       </c>
       <c r="O73" t="n">
         <v>1819553.54</v>
@@ -6340,7 +6336,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>% exceedances over 260/100 mL</t>
+          <t>mg chl-a /m2</t>
         </is>
       </c>
     </row>
@@ -6352,12 +6348,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>E coli (&gt;540)</t>
+          <t>Visual Clarity (Sediment class 2)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -6371,31 +6367,27 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>650</v>
+        <v>0.275</v>
       </c>
       <c r="G74" t="n">
-        <v>2304.79327164969</v>
+        <v>0.313394736842105</v>
       </c>
       <c r="H74" t="n">
-        <v>28000</v>
+        <v>0.98</v>
       </c>
       <c r="I74" t="n">
-        <v>12549.49786</v>
-      </c>
-      <c r="J74" t="n">
-        <v>55.9322033898305</v>
-      </c>
-      <c r="K74" t="n">
-        <v>76.27118644067799</v>
-      </c>
+        <v>0.918</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>485</v>
+        <v>0.29</v>
       </c>
       <c r="M74" t="n">
-        <v>2770</v>
+        <v>0.4806</v>
       </c>
       <c r="N74" t="n">
-        <v>9084</v>
+        <v>0.7944</v>
       </c>
       <c r="O74" t="n">
         <v>1819553.54</v>
@@ -6425,7 +6417,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>% exceedances over 540/100 mL</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -6437,12 +6429,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>E coli (Median)</t>
+          <t>DRP (95th Percentile)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6456,31 +6448,27 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>650</v>
+        <v>0.018</v>
       </c>
       <c r="G75" t="n">
-        <v>2304.79327164969</v>
+        <v>0.020887427283364</v>
       </c>
       <c r="H75" t="n">
-        <v>28000</v>
+        <v>0.076</v>
       </c>
       <c r="I75" t="n">
-        <v>12549.49786</v>
-      </c>
-      <c r="J75" t="n">
-        <v>55.9322033898305</v>
-      </c>
-      <c r="K75" t="n">
-        <v>76.27118644067799</v>
-      </c>
+        <v>0.04155</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>485</v>
+        <v>0.0215</v>
       </c>
       <c r="M75" t="n">
-        <v>2770</v>
+        <v>0.03041</v>
       </c>
       <c r="N75" t="n">
-        <v>9084</v>
+        <v>0.04</v>
       </c>
       <c r="O75" t="n">
         <v>1819553.54</v>
@@ -6510,7 +6498,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6522,12 +6510,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>E coli (95th Percentile)</t>
+          <t>DRP (Median)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6541,31 +6529,27 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>650</v>
+        <v>0.018</v>
       </c>
       <c r="G76" t="n">
-        <v>2304.79327164969</v>
+        <v>0.020887427283364</v>
       </c>
       <c r="H76" t="n">
-        <v>28000</v>
+        <v>0.076</v>
       </c>
       <c r="I76" t="n">
-        <v>12549.49786</v>
-      </c>
-      <c r="J76" t="n">
-        <v>55.9322033898305</v>
-      </c>
-      <c r="K76" t="n">
-        <v>76.27118644067799</v>
-      </c>
+        <v>0.04155</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>485</v>
+        <v>0.0215</v>
       </c>
       <c r="M76" t="n">
-        <v>2770</v>
+        <v>0.03041</v>
       </c>
       <c r="N76" t="n">
-        <v>9084</v>
+        <v>0.04</v>
       </c>
       <c r="O76" t="n">
         <v>1819553.54</v>
@@ -6595,7 +6579,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6591,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
+          <t>E coli (&gt;260)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6626,27 +6610,31 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01207</v>
+        <v>650</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0470261305894495</v>
+        <v>2295.33341180597</v>
       </c>
       <c r="H77" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2918</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>12227.63691</v>
+      </c>
+      <c r="J77" t="n">
+        <v>55.9322033898305</v>
+      </c>
+      <c r="K77" t="n">
+        <v>76.27118644067799</v>
+      </c>
       <c r="L77" t="n">
-        <v>0.01494</v>
+        <v>485</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02438</v>
+        <v>2770</v>
       </c>
       <c r="N77" t="n">
-        <v>0.121</v>
+        <v>9084</v>
       </c>
       <c r="O77" t="n">
         <v>1819553.54</v>
@@ -6676,7 +6664,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
     </row>
@@ -6688,12 +6676,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (Median)</t>
+          <t>E coli (&gt;540)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6707,27 +6695,31 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.01207</v>
+        <v>650</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0470261305894495</v>
+        <v>2295.33341180597</v>
       </c>
       <c r="H78" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2918</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>12227.63691</v>
+      </c>
+      <c r="J78" t="n">
+        <v>55.9322033898305</v>
+      </c>
+      <c r="K78" t="n">
+        <v>76.27118644067799</v>
+      </c>
       <c r="L78" t="n">
-        <v>0.01494</v>
+        <v>485</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02438</v>
+        <v>2770</v>
       </c>
       <c r="N78" t="n">
-        <v>0.121</v>
+        <v>9084</v>
       </c>
       <c r="O78" t="n">
         <v>1819553.54</v>
@@ -6757,7 +6749,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
     </row>
@@ -6769,12 +6761,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nitrate-N (95th Percentile)</t>
+          <t>E coli (Median)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6788,27 +6780,31 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.246</v>
+        <v>650</v>
       </c>
       <c r="G79" t="n">
-        <v>0.267215742735612</v>
+        <v>2295.33341180597</v>
       </c>
       <c r="H79" t="n">
-        <v>1.14</v>
+        <v>28000</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7282</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>12227.63691</v>
+      </c>
+      <c r="J79" t="n">
+        <v>55.9322033898305</v>
+      </c>
+      <c r="K79" t="n">
+        <v>76.27118644067799</v>
+      </c>
       <c r="L79" t="n">
-        <v>0.0105</v>
+        <v>485</v>
       </c>
       <c r="M79" t="n">
-        <v>0.50445</v>
+        <v>2770</v>
       </c>
       <c r="N79" t="n">
-        <v>0.64058</v>
+        <v>9084</v>
       </c>
       <c r="O79" t="n">
         <v>1819553.54</v>
@@ -6838,7 +6834,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -6850,12 +6846,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nitrate-N (Median)</t>
+          <t>E coli (95th Percentile)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6869,27 +6865,31 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.246</v>
+        <v>650</v>
       </c>
       <c r="G80" t="n">
-        <v>0.267215742735612</v>
+        <v>2295.33341180597</v>
       </c>
       <c r="H80" t="n">
-        <v>1.14</v>
+        <v>28000</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7282</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>12227.63691</v>
+      </c>
+      <c r="J80" t="n">
+        <v>55.9322033898305</v>
+      </c>
+      <c r="K80" t="n">
+        <v>76.27118644067799</v>
+      </c>
       <c r="L80" t="n">
-        <v>0.0105</v>
+        <v>485</v>
       </c>
       <c r="M80" t="n">
-        <v>0.50445</v>
+        <v>2770</v>
       </c>
       <c r="N80" t="n">
-        <v>0.64058</v>
+        <v>9084</v>
       </c>
       <c r="O80" t="n">
         <v>1819553.54</v>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -6931,10 +6931,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -6946,27 +6950,27 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.275</v>
+        <v>0.01207</v>
       </c>
       <c r="G81" t="n">
-        <v>0.326904187955133</v>
+        <v>0.0471510898258146</v>
       </c>
       <c r="H81" t="n">
-        <v>1.6</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I81" t="n">
-        <v>0.91665</v>
+        <v>0.2918</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.0285</v>
+        <v>0.01522</v>
       </c>
       <c r="M81" t="n">
-        <v>0.5794</v>
+        <v>0.02546</v>
       </c>
       <c r="N81" t="n">
-        <v>0.68</v>
+        <v>0.121</v>
       </c>
       <c r="O81" t="n">
         <v>1819553.54</v>
@@ -6996,7 +7000,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -7008,10 +7012,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -7023,27 +7031,27 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.275</v>
+        <v>0.01207</v>
       </c>
       <c r="G82" t="n">
-        <v>0.326904187955133</v>
+        <v>0.0471510898258146</v>
       </c>
       <c r="H82" t="n">
-        <v>1.6</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I82" t="n">
-        <v>0.91665</v>
+        <v>0.2918</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.0285</v>
+        <v>0.01522</v>
       </c>
       <c r="M82" t="n">
-        <v>0.5794</v>
+        <v>0.02546</v>
       </c>
       <c r="N82" t="n">
-        <v>0.68</v>
+        <v>0.121</v>
       </c>
       <c r="O82" t="n">
         <v>1819553.54</v>
@@ -7073,7 +7081,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -7085,10 +7093,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -7100,27 +7112,27 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.87</v>
+        <v>0.246</v>
       </c>
       <c r="G83" t="n">
-        <v>0.994237288135593</v>
+        <v>0.267361805343265</v>
       </c>
       <c r="H83" t="n">
-        <v>2.65</v>
+        <v>1.14</v>
       </c>
       <c r="I83" t="n">
-        <v>1.7245</v>
+        <v>0.7282</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.01086</v>
       </c>
       <c r="M83" t="n">
-        <v>1.2294</v>
+        <v>0.50445</v>
       </c>
       <c r="N83" t="n">
-        <v>1.5746</v>
+        <v>0.64058</v>
       </c>
       <c r="O83" t="n">
         <v>1819553.54</v>
@@ -7150,7 +7162,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -7162,10 +7174,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -7177,27 +7193,27 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.87</v>
+        <v>0.246</v>
       </c>
       <c r="G84" t="n">
-        <v>0.994237288135593</v>
+        <v>0.267361805343265</v>
       </c>
       <c r="H84" t="n">
-        <v>2.65</v>
+        <v>1.14</v>
       </c>
       <c r="I84" t="n">
-        <v>1.7245</v>
+        <v>0.7282</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.01086</v>
       </c>
       <c r="M84" t="n">
-        <v>1.2294</v>
+        <v>0.50445</v>
       </c>
       <c r="N84" t="n">
-        <v>1.5746</v>
+        <v>0.64058</v>
       </c>
       <c r="O84" t="n">
         <v>1819553.54</v>
@@ -7227,7 +7243,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -7239,7 +7255,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Total Phosphorus (95th Percentile)</t>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -7254,27 +7270,27 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.075</v>
+        <v>0.275</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09567796610169491</v>
+        <v>0.327031043589391</v>
       </c>
       <c r="H85" t="n">
-        <v>0.291</v>
+        <v>1.6</v>
       </c>
       <c r="I85" t="n">
-        <v>0.22045</v>
+        <v>0.91665</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.0285</v>
       </c>
       <c r="M85" t="n">
-        <v>0.13799</v>
+        <v>0.5794</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1869</v>
+        <v>0.68</v>
       </c>
       <c r="O85" t="n">
         <v>1819553.54</v>
@@ -7316,7 +7332,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Total Phosphorus (Median)</t>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -7331,27 +7347,27 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.075</v>
+        <v>0.275</v>
       </c>
       <c r="G86" t="n">
-        <v>0.09567796610169491</v>
+        <v>0.327031043589391</v>
       </c>
       <c r="H86" t="n">
-        <v>0.291</v>
+        <v>1.6</v>
       </c>
       <c r="I86" t="n">
-        <v>0.22045</v>
+        <v>0.91665</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.0285</v>
       </c>
       <c r="M86" t="n">
-        <v>0.13799</v>
+        <v>0.5794</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1869</v>
+        <v>0.68</v>
       </c>
       <c r="O86" t="n">
         <v>1819553.54</v>
@@ -7393,17 +7409,13 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Visual Clarity (Sediment class 2)</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2017 - 2021</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7412,27 +7424,27 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.3</v>
+        <v>0.87</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3345</v>
+        <v>0.994237288135593</v>
       </c>
       <c r="H87" t="n">
-        <v>0.98</v>
+        <v>2.65</v>
       </c>
       <c r="I87" t="n">
-        <v>0.95</v>
+        <v>1.7245</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.34</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="M87" t="n">
-        <v>0.486</v>
+        <v>1.2294</v>
       </c>
       <c r="N87" t="n">
-        <v>0.878</v>
+        <v>1.5746</v>
       </c>
       <c r="O87" t="n">
         <v>1819553.54</v>
@@ -7462,7 +7474,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -7474,17 +7486,13 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2017 - 2021</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7493,27 +7501,27 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.019</v>
+        <v>0.87</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0233886481362202</v>
+        <v>0.994237288135593</v>
       </c>
       <c r="H88" t="n">
-        <v>0.076</v>
+        <v>2.65</v>
       </c>
       <c r="I88" t="n">
-        <v>0.051</v>
+        <v>1.7245</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.0225</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03947</v>
+        <v>1.2294</v>
       </c>
       <c r="N88" t="n">
-        <v>0.042</v>
+        <v>1.5746</v>
       </c>
       <c r="O88" t="n">
         <v>1819553.54</v>
@@ -7543,7 +7551,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -7555,17 +7563,13 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2017 - 2021</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7574,27 +7578,27 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.019</v>
+        <v>0.075</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0233886481362202</v>
+        <v>0.09567796610169491</v>
       </c>
       <c r="H89" t="n">
-        <v>0.076</v>
+        <v>0.291</v>
       </c>
       <c r="I89" t="n">
-        <v>0.051</v>
+        <v>0.22045</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>0.0225</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03947</v>
+        <v>0.13799</v>
       </c>
       <c r="N89" t="n">
-        <v>0.042</v>
+        <v>0.1869</v>
       </c>
       <c r="O89" t="n">
         <v>1819553.54</v>
@@ -7624,7 +7628,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -7636,17 +7640,13 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2017 - 2021</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7655,31 +7655,27 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>650</v>
+        <v>0.075</v>
       </c>
       <c r="G90" t="n">
-        <v>1910.32007016426</v>
+        <v>0.09567796610169491</v>
       </c>
       <c r="H90" t="n">
-        <v>28000</v>
+        <v>0.291</v>
       </c>
       <c r="I90" t="n">
-        <v>8440</v>
-      </c>
-      <c r="J90" t="n">
-        <v>54.2372881355932</v>
-      </c>
-      <c r="K90" t="n">
-        <v>71.1864406779661</v>
-      </c>
+        <v>0.22045</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>405</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="M90" t="n">
-        <v>1876</v>
+        <v>0.13799</v>
       </c>
       <c r="N90" t="n">
-        <v>6090</v>
+        <v>0.1869</v>
       </c>
       <c r="O90" t="n">
         <v>1819553.54</v>
@@ -7709,7 +7705,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>% exceedances over 260/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -7721,12 +7717,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>E coli (&gt;540)</t>
+          <t>Chlorophyll A (83rd Percentile)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7740,31 +7736,27 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>650</v>
+        <v>60</v>
       </c>
       <c r="G91" t="n">
-        <v>1910.32007016426</v>
+        <v>74.66813725490201</v>
       </c>
       <c r="H91" t="n">
-        <v>28000</v>
+        <v>210</v>
       </c>
       <c r="I91" t="n">
-        <v>8440</v>
-      </c>
-      <c r="J91" t="n">
-        <v>54.2372881355932</v>
-      </c>
-      <c r="K91" t="n">
-        <v>71.1864406779661</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="M91" t="n">
-        <v>1876</v>
+        <v>137.45</v>
       </c>
       <c r="N91" t="n">
-        <v>6090</v>
+        <v>182.1</v>
       </c>
       <c r="O91" t="n">
         <v>1819553.54</v>
@@ -7794,7 +7786,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>% exceedances over 540/100 mL</t>
+          <t>mg chl-a /m2</t>
         </is>
       </c>
     </row>
@@ -7806,12 +7798,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>E coli (Median)</t>
+          <t>Visual Clarity (Sediment class 2)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7825,31 +7817,27 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>650</v>
+        <v>0.3</v>
       </c>
       <c r="G92" t="n">
-        <v>1910.32007016426</v>
+        <v>0.3345</v>
       </c>
       <c r="H92" t="n">
-        <v>28000</v>
+        <v>0.98</v>
       </c>
       <c r="I92" t="n">
-        <v>8440</v>
-      </c>
-      <c r="J92" t="n">
-        <v>54.2372881355932</v>
-      </c>
-      <c r="K92" t="n">
-        <v>71.1864406779661</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
-        <v>405</v>
+        <v>0.34</v>
       </c>
       <c r="M92" t="n">
-        <v>1876</v>
+        <v>0.486</v>
       </c>
       <c r="N92" t="n">
-        <v>6090</v>
+        <v>0.878</v>
       </c>
       <c r="O92" t="n">
         <v>1819553.54</v>
@@ -7879,7 +7867,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -7891,12 +7879,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>E coli (95th Percentile)</t>
+          <t>DRP (95th Percentile)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7910,31 +7898,27 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>650</v>
+        <v>0.019</v>
       </c>
       <c r="G93" t="n">
-        <v>1910.32007016426</v>
+        <v>0.0233893615030052</v>
       </c>
       <c r="H93" t="n">
-        <v>28000</v>
+        <v>0.076</v>
       </c>
       <c r="I93" t="n">
-        <v>8440</v>
-      </c>
-      <c r="J93" t="n">
-        <v>54.2372881355932</v>
-      </c>
-      <c r="K93" t="n">
-        <v>71.1864406779661</v>
-      </c>
+        <v>0.051</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>405</v>
+        <v>0.0225</v>
       </c>
       <c r="M93" t="n">
-        <v>1876</v>
+        <v>0.03947</v>
       </c>
       <c r="N93" t="n">
-        <v>6090</v>
+        <v>0.042</v>
       </c>
       <c r="O93" t="n">
         <v>1819553.54</v>
@@ -7964,7 +7948,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7976,12 +7960,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
+          <t>DRP (Median)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -7995,27 +7979,27 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.01421</v>
+        <v>0.019</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0543875417470127</v>
+        <v>0.0233893615030052</v>
       </c>
       <c r="H94" t="n">
-        <v>0.861295420989555</v>
+        <v>0.076</v>
       </c>
       <c r="I94" t="n">
-        <v>0.29034</v>
+        <v>0.051</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.01891</v>
+        <v>0.0225</v>
       </c>
       <c r="M94" t="n">
-        <v>0.05447</v>
+        <v>0.03947</v>
       </c>
       <c r="N94" t="n">
-        <v>0.17042</v>
+        <v>0.042</v>
       </c>
       <c r="O94" t="n">
         <v>1819553.54</v>
@@ -8045,7 +8029,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8057,12 +8041,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (Median)</t>
+          <t>E coli (&gt;260)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8076,27 +8060,31 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.01421</v>
+        <v>650</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0543875417470127</v>
+        <v>1898.19724723023</v>
       </c>
       <c r="H95" t="n">
-        <v>0.861295420989555</v>
+        <v>28000</v>
       </c>
       <c r="I95" t="n">
-        <v>0.29034</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>8440</v>
+      </c>
+      <c r="J95" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="K95" t="n">
+        <v>71.1864406779661</v>
+      </c>
       <c r="L95" t="n">
-        <v>0.01891</v>
+        <v>405</v>
       </c>
       <c r="M95" t="n">
-        <v>0.05447</v>
+        <v>1876</v>
       </c>
       <c r="N95" t="n">
-        <v>0.17042</v>
+        <v>6090</v>
       </c>
       <c r="O95" t="n">
         <v>1819553.54</v>
@@ -8126,7 +8114,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
     </row>
@@ -8138,12 +8126,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Nitrate-N (95th Percentile)</t>
+          <t>E coli (&gt;540)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8157,27 +8145,31 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.242</v>
+        <v>650</v>
       </c>
       <c r="G96" t="n">
-        <v>0.260403085288906</v>
+        <v>1898.19724723023</v>
       </c>
       <c r="H96" t="n">
-        <v>1.14</v>
+        <v>28000</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7106</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>8440</v>
+      </c>
+      <c r="J96" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="K96" t="n">
+        <v>71.1864406779661</v>
+      </c>
       <c r="L96" t="n">
-        <v>0.0195</v>
+        <v>405</v>
       </c>
       <c r="M96" t="n">
-        <v>0.50445</v>
+        <v>1876</v>
       </c>
       <c r="N96" t="n">
-        <v>0.6309</v>
+        <v>6090</v>
       </c>
       <c r="O96" t="n">
         <v>1819553.54</v>
@@ -8207,7 +8199,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
     </row>
@@ -8219,12 +8211,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nitrate-N (Median)</t>
+          <t>E coli (Median)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8238,27 +8230,31 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.242</v>
+        <v>650</v>
       </c>
       <c r="G97" t="n">
-        <v>0.260403085288906</v>
+        <v>1898.19724723023</v>
       </c>
       <c r="H97" t="n">
-        <v>1.14</v>
+        <v>28000</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7106</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>8440</v>
+      </c>
+      <c r="J97" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="K97" t="n">
+        <v>71.1864406779661</v>
+      </c>
       <c r="L97" t="n">
-        <v>0.0195</v>
+        <v>405</v>
       </c>
       <c r="M97" t="n">
-        <v>0.50445</v>
+        <v>1876</v>
       </c>
       <c r="N97" t="n">
-        <v>0.6309</v>
+        <v>6090</v>
       </c>
       <c r="O97" t="n">
         <v>1819553.54</v>
@@ -8288,7 +8284,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -8300,10 +8296,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -8315,27 +8315,31 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.275</v>
+        <v>650</v>
       </c>
       <c r="G98" t="n">
-        <v>0.324129321570017</v>
+        <v>1898.19724723023</v>
       </c>
       <c r="H98" t="n">
-        <v>1.6</v>
+        <v>28000</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9351</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>8440</v>
+      </c>
+      <c r="J98" t="n">
+        <v>54.2372881355932</v>
+      </c>
+      <c r="K98" t="n">
+        <v>71.1864406779661</v>
+      </c>
       <c r="L98" t="n">
-        <v>0.061</v>
+        <v>405</v>
       </c>
       <c r="M98" t="n">
-        <v>0.56947</v>
+        <v>1876</v>
       </c>
       <c r="N98" t="n">
-        <v>0.68</v>
+        <v>6090</v>
       </c>
       <c r="O98" t="n">
         <v>1819553.54</v>
@@ -8365,7 +8369,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -8377,10 +8381,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -8392,27 +8400,27 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.275</v>
+        <v>0.01421</v>
       </c>
       <c r="G99" t="n">
-        <v>0.324129321570017</v>
+        <v>0.0544552248571955</v>
       </c>
       <c r="H99" t="n">
-        <v>1.6</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9351</v>
+        <v>0.29034</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.061</v>
+        <v>0.01891</v>
       </c>
       <c r="M99" t="n">
-        <v>0.56947</v>
+        <v>0.05447</v>
       </c>
       <c r="N99" t="n">
-        <v>0.68</v>
+        <v>0.17042</v>
       </c>
       <c r="O99" t="n">
         <v>1819553.54</v>
@@ -8442,7 +8450,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -8454,10 +8462,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -8469,27 +8481,27 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.87</v>
+        <v>0.01421</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9637288135593221</v>
+        <v>0.0544552248571955</v>
       </c>
       <c r="H100" t="n">
-        <v>2.65</v>
+        <v>0.861295420989555</v>
       </c>
       <c r="I100" t="n">
-        <v>1.7245</v>
+        <v>0.29034</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.01891</v>
       </c>
       <c r="M100" t="n">
-        <v>1.1847</v>
+        <v>0.05447</v>
       </c>
       <c r="N100" t="n">
-        <v>1.498</v>
+        <v>0.17042</v>
       </c>
       <c r="O100" t="n">
         <v>1819553.54</v>
@@ -8519,7 +8531,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -8531,10 +8543,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -8546,27 +8562,27 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.87</v>
+        <v>0.242</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9637288135593221</v>
+        <v>0.260560451761166</v>
       </c>
       <c r="H101" t="n">
-        <v>2.65</v>
+        <v>1.14</v>
       </c>
       <c r="I101" t="n">
-        <v>1.7245</v>
+        <v>0.7106</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.0195</v>
       </c>
       <c r="M101" t="n">
-        <v>1.1847</v>
+        <v>0.50445</v>
       </c>
       <c r="N101" t="n">
-        <v>1.498</v>
+        <v>0.6309</v>
       </c>
       <c r="O101" t="n">
         <v>1819553.54</v>
@@ -8596,7 +8612,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -8608,10 +8624,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -8623,27 +8643,27 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.075</v>
+        <v>0.242</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0907118644067797</v>
+        <v>0.260560451761166</v>
       </c>
       <c r="H102" t="n">
-        <v>0.291</v>
+        <v>1.14</v>
       </c>
       <c r="I102" t="n">
-        <v>0.18575</v>
+        <v>0.7106</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.0925</v>
+        <v>0.0195</v>
       </c>
       <c r="M102" t="n">
-        <v>0.125</v>
+        <v>0.50445</v>
       </c>
       <c r="N102" t="n">
-        <v>0.16534</v>
+        <v>0.6309</v>
       </c>
       <c r="O102" t="n">
         <v>1819553.54</v>
@@ -8673,7 +8693,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8705,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Total Phosphorus (Median)</t>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -8700,27 +8720,27 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.075</v>
+        <v>0.275</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0907118644067797</v>
+        <v>0.324233977007919</v>
       </c>
       <c r="H103" t="n">
-        <v>0.291</v>
+        <v>1.6</v>
       </c>
       <c r="I103" t="n">
-        <v>0.18575</v>
+        <v>0.9351</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.0925</v>
+        <v>0.061</v>
       </c>
       <c r="M103" t="n">
-        <v>0.125</v>
+        <v>0.56947</v>
       </c>
       <c r="N103" t="n">
-        <v>0.16534</v>
+        <v>0.68</v>
       </c>
       <c r="O103" t="n">
         <v>1819553.54</v>
@@ -8762,17 +8782,13 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2018 - 2022</t>
+          <t>2017 - 2021</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -8781,27 +8797,27 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.019</v>
+        <v>0.275</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0226896551724138</v>
+        <v>0.324233977007919</v>
       </c>
       <c r="H104" t="n">
-        <v>0.076</v>
+        <v>1.6</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0474</v>
+        <v>0.9351</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.022</v>
+        <v>0.061</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03392</v>
+        <v>0.56947</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04086</v>
+        <v>0.68</v>
       </c>
       <c r="O104" t="n">
         <v>1819553.54</v>
@@ -8831,7 +8847,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -8843,17 +8859,13 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2018 - 2022</t>
+          <t>2017 - 2021</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -8862,27 +8874,27 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.019</v>
+        <v>0.87</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0226896551724138</v>
+        <v>0.9637288135593221</v>
       </c>
       <c r="H105" t="n">
-        <v>0.076</v>
+        <v>2.65</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0474</v>
+        <v>1.7245</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.022</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03392</v>
+        <v>1.1847</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04086</v>
+        <v>1.498</v>
       </c>
       <c r="O105" t="n">
         <v>1819553.54</v>
@@ -8912,7 +8924,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -8924,17 +8936,13 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2018 - 2022</t>
+          <t>2017 - 2021</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -8943,31 +8951,27 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>420</v>
+        <v>0.87</v>
       </c>
       <c r="G106" t="n">
-        <v>1519.3668238183</v>
+        <v>0.9637288135593221</v>
       </c>
       <c r="H106" t="n">
-        <v>20017.5212237336</v>
+        <v>2.65</v>
       </c>
       <c r="I106" t="n">
-        <v>8300</v>
-      </c>
-      <c r="J106" t="n">
-        <v>44.8275862068966</v>
-      </c>
-      <c r="K106" t="n">
-        <v>67.2413793103448</v>
-      </c>
+        <v>1.7245</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>270</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M106" t="n">
-        <v>1464</v>
+        <v>1.1847</v>
       </c>
       <c r="N106" t="n">
-        <v>5364</v>
+        <v>1.498</v>
       </c>
       <c r="O106" t="n">
         <v>1819553.54</v>
@@ -8997,7 +9001,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>% exceedances over 260/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -9009,17 +9013,13 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2018 - 2022</t>
+          <t>2017 - 2021</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -9028,31 +9028,27 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>420</v>
+        <v>0.075</v>
       </c>
       <c r="G107" t="n">
-        <v>1519.3668238183</v>
+        <v>0.0907118644067797</v>
       </c>
       <c r="H107" t="n">
-        <v>20017.5212237336</v>
+        <v>0.291</v>
       </c>
       <c r="I107" t="n">
-        <v>8300</v>
-      </c>
-      <c r="J107" t="n">
-        <v>44.8275862068966</v>
-      </c>
-      <c r="K107" t="n">
-        <v>67.2413793103448</v>
-      </c>
+        <v>0.18575</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>270</v>
+        <v>0.0925</v>
       </c>
       <c r="M107" t="n">
-        <v>1464</v>
+        <v>0.125</v>
       </c>
       <c r="N107" t="n">
-        <v>5364</v>
+        <v>0.16534</v>
       </c>
       <c r="O107" t="n">
         <v>1819553.54</v>
@@ -9082,7 +9078,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>% exceedances over 540/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -9094,17 +9090,13 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2018 - 2022</t>
+          <t>2017 - 2021</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -9113,31 +9105,27 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>420</v>
+        <v>0.075</v>
       </c>
       <c r="G108" t="n">
-        <v>1519.3668238183</v>
+        <v>0.0907118644067797</v>
       </c>
       <c r="H108" t="n">
-        <v>20017.5212237336</v>
+        <v>0.291</v>
       </c>
       <c r="I108" t="n">
-        <v>8300</v>
-      </c>
-      <c r="J108" t="n">
-        <v>44.8275862068966</v>
-      </c>
-      <c r="K108" t="n">
-        <v>67.2413793103448</v>
-      </c>
+        <v>0.18575</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>270</v>
+        <v>0.0925</v>
       </c>
       <c r="M108" t="n">
-        <v>1464</v>
+        <v>0.125</v>
       </c>
       <c r="N108" t="n">
-        <v>5364</v>
+        <v>0.16534</v>
       </c>
       <c r="O108" t="n">
         <v>1819553.54</v>
@@ -9167,7 +9155,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -9179,12 +9167,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>E coli (95th Percentile)</t>
+          <t>Chlorophyll A (83rd Percentile)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9198,31 +9186,27 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="G109" t="n">
-        <v>1519.3668238183</v>
+        <v>69.14100000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>20017.5212237336</v>
+        <v>185</v>
       </c>
       <c r="I109" t="n">
-        <v>8300</v>
-      </c>
-      <c r="J109" t="n">
-        <v>44.8275862068966</v>
-      </c>
-      <c r="K109" t="n">
-        <v>67.2413793103448</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="M109" t="n">
-        <v>1464</v>
+        <v>115</v>
       </c>
       <c r="N109" t="n">
-        <v>5364</v>
+        <v>155</v>
       </c>
       <c r="O109" t="n">
         <v>1819553.54</v>
@@ -9252,7 +9236,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg chl-a /m2</t>
         </is>
       </c>
     </row>
@@ -9264,12 +9248,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
+          <t>DRP (95th Percentile)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9283,27 +9267,27 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.01344</v>
+        <v>0.019</v>
       </c>
       <c r="G110" t="n">
-        <v>0.032820977455382</v>
+        <v>0.0226896551724138</v>
       </c>
       <c r="H110" t="n">
-        <v>0.390994438041885</v>
+        <v>0.076</v>
       </c>
       <c r="I110" t="n">
-        <v>0.145</v>
+        <v>0.0474</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.01837</v>
+        <v>0.022</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0309</v>
+        <v>0.03392</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09329</v>
+        <v>0.04086</v>
       </c>
       <c r="O110" t="n">
         <v>1819553.54</v>
@@ -9333,7 +9317,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -9345,12 +9329,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ammoniacal-N (Median)</t>
+          <t>DRP (Median)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9364,27 +9348,27 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.01344</v>
+        <v>0.019</v>
       </c>
       <c r="G111" t="n">
-        <v>0.032820977455382</v>
+        <v>0.0226896551724138</v>
       </c>
       <c r="H111" t="n">
-        <v>0.390994438041885</v>
+        <v>0.076</v>
       </c>
       <c r="I111" t="n">
-        <v>0.145</v>
+        <v>0.0474</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.01837</v>
+        <v>0.022</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0309</v>
+        <v>0.03392</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09329</v>
+        <v>0.04086</v>
       </c>
       <c r="O111" t="n">
         <v>1819553.54</v>
@@ -9414,7 +9398,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>mg NH4-N/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -9426,12 +9410,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Nitrate-N (95th Percentile)</t>
+          <t>E coli (&gt;260)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -9445,27 +9429,31 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.224</v>
+        <v>420</v>
       </c>
       <c r="G112" t="n">
-        <v>0.299479000552508</v>
+        <v>1345.30950886711</v>
       </c>
       <c r="H112" t="n">
-        <v>1.53</v>
+        <v>11283.6375865838</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9568</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>8300</v>
+      </c>
+      <c r="J112" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K112" t="n">
+        <v>67.2413793103448</v>
+      </c>
       <c r="L112" t="n">
-        <v>0.014</v>
+        <v>270</v>
       </c>
       <c r="M112" t="n">
-        <v>0.61912</v>
+        <v>1464</v>
       </c>
       <c r="N112" t="n">
-        <v>0.7526</v>
+        <v>5364</v>
       </c>
       <c r="O112" t="n">
         <v>1819553.54</v>
@@ -9495,7 +9483,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>% exceedances over 260/100 mL</t>
         </is>
       </c>
     </row>
@@ -9507,12 +9495,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nitrate-N (Median)</t>
+          <t>E coli (&gt;540)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9526,27 +9514,31 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.224</v>
+        <v>420</v>
       </c>
       <c r="G113" t="n">
-        <v>0.299479000552508</v>
+        <v>1345.30950886711</v>
       </c>
       <c r="H113" t="n">
-        <v>1.53</v>
+        <v>11283.6375865838</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9568</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>8300</v>
+      </c>
+      <c r="J113" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K113" t="n">
+        <v>67.2413793103448</v>
+      </c>
       <c r="L113" t="n">
-        <v>0.014</v>
+        <v>270</v>
       </c>
       <c r="M113" t="n">
-        <v>0.61912</v>
+        <v>1464</v>
       </c>
       <c r="N113" t="n">
-        <v>0.7526</v>
+        <v>5364</v>
       </c>
       <c r="O113" t="n">
         <v>1819553.54</v>
@@ -9576,7 +9568,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>mg NO3-N/L</t>
+          <t>% exceedances over 540/100 mL</t>
         </is>
       </c>
     </row>
@@ -9588,10 +9580,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>2018 - 2022</t>
@@ -9603,27 +9599,31 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.253</v>
+        <v>420</v>
       </c>
       <c r="G114" t="n">
-        <v>0.330234999528121</v>
+        <v>1345.30950886711</v>
       </c>
       <c r="H114" t="n">
-        <v>1.57</v>
+        <v>11283.6375865838</v>
       </c>
       <c r="I114" t="n">
-        <v>1.004</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>8300</v>
+      </c>
+      <c r="J114" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K114" t="n">
+        <v>67.2413793103448</v>
+      </c>
       <c r="L114" t="n">
-        <v>0.055</v>
+        <v>270</v>
       </c>
       <c r="M114" t="n">
-        <v>0.65748</v>
+        <v>1464</v>
       </c>
       <c r="N114" t="n">
-        <v>0.82738</v>
+        <v>5364</v>
       </c>
       <c r="O114" t="n">
         <v>1819553.54</v>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -9665,10 +9665,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>2018 - 2022</t>
@@ -9680,27 +9684,31 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.253</v>
+        <v>420</v>
       </c>
       <c r="G115" t="n">
-        <v>0.330234999528121</v>
+        <v>1345.30950886711</v>
       </c>
       <c r="H115" t="n">
-        <v>1.57</v>
+        <v>11283.6375865838</v>
       </c>
       <c r="I115" t="n">
-        <v>1.004</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>8300</v>
+      </c>
+      <c r="J115" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K115" t="n">
+        <v>67.2413793103448</v>
+      </c>
       <c r="L115" t="n">
-        <v>0.055</v>
+        <v>270</v>
       </c>
       <c r="M115" t="n">
-        <v>0.65748</v>
+        <v>1464</v>
       </c>
       <c r="N115" t="n">
-        <v>0.82738</v>
+        <v>5364</v>
       </c>
       <c r="O115" t="n">
         <v>1819553.54</v>
@@ -9730,7 +9738,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -9742,10 +9750,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>2018 - 2022</t>
@@ -9757,27 +9769,27 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.825</v>
+        <v>0.01351</v>
       </c>
       <c r="G116" t="n">
-        <v>0.935344827586207</v>
+        <v>0.0328886605655647</v>
       </c>
       <c r="H116" t="n">
-        <v>2.31</v>
+        <v>0.390994438041885</v>
       </c>
       <c r="I116" t="n">
-        <v>1.616</v>
+        <v>0.145</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.8</v>
+        <v>0.01837</v>
       </c>
       <c r="M116" t="n">
-        <v>1.1764</v>
+        <v>0.0309</v>
       </c>
       <c r="N116" t="n">
-        <v>1.506</v>
+        <v>0.09329</v>
       </c>
       <c r="O116" t="n">
         <v>1819553.54</v>
@@ -9807,7 +9819,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -9819,10 +9831,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>2018 - 2022</t>
@@ -9834,27 +9850,27 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.825</v>
+        <v>0.01351</v>
       </c>
       <c r="G117" t="n">
-        <v>0.935344827586207</v>
+        <v>0.0328886605655647</v>
       </c>
       <c r="H117" t="n">
-        <v>2.31</v>
+        <v>0.390994438041885</v>
       </c>
       <c r="I117" t="n">
-        <v>1.616</v>
+        <v>0.145</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>0.8</v>
+        <v>0.01837</v>
       </c>
       <c r="M117" t="n">
-        <v>1.1764</v>
+        <v>0.0309</v>
       </c>
       <c r="N117" t="n">
-        <v>1.506</v>
+        <v>0.09329</v>
       </c>
       <c r="O117" t="n">
         <v>1819553.54</v>
@@ -9884,7 +9900,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NH4-N/L</t>
         </is>
       </c>
     </row>
@@ -9896,10 +9912,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>2018 - 2022</t>
@@ -9911,27 +9931,27 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.073</v>
+        <v>0.224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0840689655172414</v>
+        <v>0.299639080239807</v>
       </c>
       <c r="H118" t="n">
-        <v>0.247</v>
+        <v>1.53</v>
       </c>
       <c r="I118" t="n">
-        <v>0.175</v>
+        <v>0.9568</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.092</v>
+        <v>0.014</v>
       </c>
       <c r="M118" t="n">
-        <v>0.10092</v>
+        <v>0.61912</v>
       </c>
       <c r="N118" t="n">
-        <v>0.125</v>
+        <v>0.7526</v>
       </c>
       <c r="O118" t="n">
         <v>1819553.54</v>
@@ -9961,7 +9981,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg NO3-N/L</t>
         </is>
       </c>
     </row>
@@ -9973,10 +9993,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>2018 - 2022</t>
@@ -9988,55 +10012,1886 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.073</v>
+        <v>0.224</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0840689655172414</v>
+        <v>0.299639080239807</v>
       </c>
       <c r="H119" t="n">
-        <v>0.247</v>
+        <v>1.53</v>
       </c>
       <c r="I119" t="n">
-        <v>0.175</v>
+        <v>0.9568</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.61912</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.7526</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2018 - 2022</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.330341459370124</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.65748</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.82738</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2018 - 2022</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.330341459370124</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.65748</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.82738</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2018 - 2022</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.935344827586207</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.1764</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2018 - 2022</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.935344827586207</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.1764</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2018 - 2022</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.0840689655172414</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
         <v>0.092</v>
       </c>
-      <c r="M119" t="n">
+      <c r="M124" t="n">
         <v>0.10092</v>
       </c>
-      <c r="N119" t="n">
+      <c r="N124" t="n">
         <v>0.125</v>
       </c>
-      <c r="O119" t="n">
-        <v>1819553.54</v>
-      </c>
-      <c r="P119" t="n">
-        <v>5574964.69</v>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>Rang_4c</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
+      <c r="O124" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P124" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2018 - 2022</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.0840689655172414</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.10092</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P125" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (83rd Percentile)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="G126" t="n">
+        <v>56.868</v>
+      </c>
+      <c r="H126" t="n">
+        <v>160</v>
+      </c>
+      <c r="I126" t="n">
+        <v>150</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>29</v>
+      </c>
+      <c r="M126" t="n">
+        <v>95</v>
+      </c>
+      <c r="N126" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P126" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.022448275862069</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.03392</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.04086</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P127" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.022448275862069</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.0474</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.03392</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.04086</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P128" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1156.31575737429</v>
+      </c>
+      <c r="H129" t="n">
+        <v>10638.5386378493</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J129" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K129" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L129" t="n">
+        <v>380</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1392.44</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3201.3</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P129" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1156.31575737429</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10638.5386378493</v>
+      </c>
+      <c r="I130" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J130" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K130" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L130" t="n">
+        <v>380</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1392.44</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3201.3</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P130" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1156.31575737429</v>
+      </c>
+      <c r="H131" t="n">
+        <v>10638.5386378493</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J131" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K131" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L131" t="n">
+        <v>380</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1392.44</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3201.3</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P131" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1156.31575737429</v>
+      </c>
+      <c r="H132" t="n">
+        <v>10638.5386378493</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J132" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="K132" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L132" t="n">
+        <v>380</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1392.44</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3201.3</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P132" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.01669</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0340208997068763</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.390994438041885</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>0.02046</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.03703</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.09167</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P133" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.01669</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0340208997068763</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.390994438041885</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>0.02046</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.03703</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.09167</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P134" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.2305</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.312455312179283</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.9568</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.62164</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.7526</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P135" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.2305</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.312455312179283</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.9568</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.62164</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.7526</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P136" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.2565</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.344852211101623</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.66576</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.82738</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P137" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.2565</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.344852211101623</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.66576</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.82738</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P138" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.13189655172414</v>
+      </c>
+      <c r="H139" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.1764</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1.5974</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P139" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.13189655172414</v>
+      </c>
+      <c r="H140" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.1764</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1.5974</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P140" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0849655172413793</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.1478</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.1243</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P141" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Porewa at d/s Hunterville STP site A</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0849655172413793</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.1478</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.1243</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1819553.54</v>
+      </c>
+      <c r="P142" t="n">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U142" t="inlineStr">
         <is>
           <t>g/m3</t>
         </is>

--- a/state_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
+++ b/state_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
@@ -813,10 +813,10 @@
         <v>440</v>
       </c>
       <c r="G5" t="n">
-        <v>1392.68693548958</v>
+        <v>1363.75322642263</v>
       </c>
       <c r="H5" t="n">
-        <v>15550.0337099685</v>
+        <v>14074.4145475543</v>
       </c>
       <c r="I5" t="n">
         <v>8326.6</v>
@@ -898,10 +898,10 @@
         <v>440</v>
       </c>
       <c r="G6" t="n">
-        <v>1392.68693548958</v>
+        <v>1363.75322642263</v>
       </c>
       <c r="H6" t="n">
-        <v>15550.0337099685</v>
+        <v>14074.4145475543</v>
       </c>
       <c r="I6" t="n">
         <v>8326.6</v>
@@ -983,10 +983,10 @@
         <v>440</v>
       </c>
       <c r="G7" t="n">
-        <v>1392.68693548958</v>
+        <v>1363.75322642263</v>
       </c>
       <c r="H7" t="n">
-        <v>15550.0337099685</v>
+        <v>14074.4145475543</v>
       </c>
       <c r="I7" t="n">
         <v>8326.6</v>
@@ -1068,10 +1068,10 @@
         <v>440</v>
       </c>
       <c r="G8" t="n">
-        <v>1392.68693548958</v>
+        <v>1363.75322642263</v>
       </c>
       <c r="H8" t="n">
-        <v>15550.0337099685</v>
+        <v>14074.4145475543</v>
       </c>
       <c r="I8" t="n">
         <v>8326.6</v>
@@ -2263,7 +2263,7 @@
         <v>529</v>
       </c>
       <c r="G23" t="n">
-        <v>1904.61722849948</v>
+        <v>1880.02357579257</v>
       </c>
       <c r="H23" t="n">
         <v>28000</v>
@@ -2348,7 +2348,7 @@
         <v>529</v>
       </c>
       <c r="G24" t="n">
-        <v>1904.61722849948</v>
+        <v>1880.02357579257</v>
       </c>
       <c r="H24" t="n">
         <v>28000</v>
@@ -2433,7 +2433,7 @@
         <v>529</v>
       </c>
       <c r="G25" t="n">
-        <v>1904.61722849948</v>
+        <v>1880.02357579257</v>
       </c>
       <c r="H25" t="n">
         <v>28000</v>
@@ -2518,7 +2518,7 @@
         <v>529</v>
       </c>
       <c r="G26" t="n">
-        <v>1904.61722849948</v>
+        <v>1880.02357579257</v>
       </c>
       <c r="H26" t="n">
         <v>28000</v>
@@ -3713,13 +3713,13 @@
         <v>560</v>
       </c>
       <c r="G41" t="n">
-        <v>1952.27785494254</v>
+        <v>1973.53605201343</v>
       </c>
       <c r="H41" t="n">
         <v>28000</v>
       </c>
       <c r="I41" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J41" t="n">
         <v>50</v>
@@ -3798,13 +3798,13 @@
         <v>560</v>
       </c>
       <c r="G42" t="n">
-        <v>1952.27785494254</v>
+        <v>1973.53605201343</v>
       </c>
       <c r="H42" t="n">
         <v>28000</v>
       </c>
       <c r="I42" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J42" t="n">
         <v>50</v>
@@ -3883,13 +3883,13 @@
         <v>560</v>
       </c>
       <c r="G43" t="n">
-        <v>1952.27785494254</v>
+        <v>1973.53605201343</v>
       </c>
       <c r="H43" t="n">
         <v>28000</v>
       </c>
       <c r="I43" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J43" t="n">
         <v>50</v>
@@ -3968,13 +3968,13 @@
         <v>560</v>
       </c>
       <c r="G44" t="n">
-        <v>1952.27785494254</v>
+        <v>1973.53605201343</v>
       </c>
       <c r="H44" t="n">
         <v>28000</v>
       </c>
       <c r="I44" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J44" t="n">
         <v>50</v>
@@ -5163,13 +5163,13 @@
         <v>630</v>
       </c>
       <c r="G59" t="n">
-        <v>2190.81118827587</v>
+        <v>2212.06938534676</v>
       </c>
       <c r="H59" t="n">
         <v>28000</v>
       </c>
       <c r="I59" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J59" t="n">
         <v>56.6666666666667</v>
@@ -5248,13 +5248,13 @@
         <v>630</v>
       </c>
       <c r="G60" t="n">
-        <v>2190.81118827587</v>
+        <v>2212.06938534676</v>
       </c>
       <c r="H60" t="n">
         <v>28000</v>
       </c>
       <c r="I60" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J60" t="n">
         <v>56.6666666666667</v>
@@ -5333,13 +5333,13 @@
         <v>630</v>
       </c>
       <c r="G61" t="n">
-        <v>2190.81118827587</v>
+        <v>2212.06938534676</v>
       </c>
       <c r="H61" t="n">
         <v>28000</v>
       </c>
       <c r="I61" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J61" t="n">
         <v>56.6666666666667</v>
@@ -5418,13 +5418,13 @@
         <v>630</v>
       </c>
       <c r="G62" t="n">
-        <v>2190.81118827587</v>
+        <v>2212.06938534676</v>
       </c>
       <c r="H62" t="n">
         <v>28000</v>
       </c>
       <c r="I62" t="n">
-        <v>12141.81879</v>
+        <v>13517.37429</v>
       </c>
       <c r="J62" t="n">
         <v>56.6666666666667</v>
@@ -6613,13 +6613,13 @@
         <v>650</v>
       </c>
       <c r="G77" t="n">
-        <v>2295.33341180597</v>
+        <v>2316.95191730179</v>
       </c>
       <c r="H77" t="n">
         <v>28000</v>
       </c>
       <c r="I77" t="n">
-        <v>12227.63691</v>
+        <v>13569.11172</v>
       </c>
       <c r="J77" t="n">
         <v>55.9322033898305</v>
@@ -6698,13 +6698,13 @@
         <v>650</v>
       </c>
       <c r="G78" t="n">
-        <v>2295.33341180597</v>
+        <v>2316.95191730179</v>
       </c>
       <c r="H78" t="n">
         <v>28000</v>
       </c>
       <c r="I78" t="n">
-        <v>12227.63691</v>
+        <v>13569.11172</v>
       </c>
       <c r="J78" t="n">
         <v>55.9322033898305</v>
@@ -6783,13 +6783,13 @@
         <v>650</v>
       </c>
       <c r="G79" t="n">
-        <v>2295.33341180597</v>
+        <v>2316.95191730179</v>
       </c>
       <c r="H79" t="n">
         <v>28000</v>
       </c>
       <c r="I79" t="n">
-        <v>12227.63691</v>
+        <v>13569.11172</v>
       </c>
       <c r="J79" t="n">
         <v>55.9322033898305</v>
@@ -6868,13 +6868,13 @@
         <v>650</v>
       </c>
       <c r="G80" t="n">
-        <v>2295.33341180597</v>
+        <v>2316.95191730179</v>
       </c>
       <c r="H80" t="n">
         <v>28000</v>
       </c>
       <c r="I80" t="n">
-        <v>12227.63691</v>
+        <v>13569.11172</v>
       </c>
       <c r="J80" t="n">
         <v>55.9322033898305</v>
@@ -8063,7 +8063,7 @@
         <v>650</v>
       </c>
       <c r="G95" t="n">
-        <v>1898.19724723023</v>
+        <v>1944.82624700426</v>
       </c>
       <c r="H95" t="n">
         <v>28000</v>
@@ -8148,7 +8148,7 @@
         <v>650</v>
       </c>
       <c r="G96" t="n">
-        <v>1898.19724723023</v>
+        <v>1944.82624700426</v>
       </c>
       <c r="H96" t="n">
         <v>28000</v>
@@ -8233,7 +8233,7 @@
         <v>650</v>
       </c>
       <c r="G97" t="n">
-        <v>1898.19724723023</v>
+        <v>1944.82624700426</v>
       </c>
       <c r="H97" t="n">
         <v>28000</v>
@@ -8318,7 +8318,7 @@
         <v>650</v>
       </c>
       <c r="G98" t="n">
-        <v>1898.19724723023</v>
+        <v>1944.82624700426</v>
       </c>
       <c r="H98" t="n">
         <v>28000</v>
@@ -9432,10 +9432,10 @@
         <v>420</v>
       </c>
       <c r="G112" t="n">
-        <v>1345.30950886711</v>
+        <v>1582.16640496454</v>
       </c>
       <c r="H112" t="n">
-        <v>11283.6375865838</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I112" t="n">
         <v>8300</v>
@@ -9517,10 +9517,10 @@
         <v>420</v>
       </c>
       <c r="G113" t="n">
-        <v>1345.30950886711</v>
+        <v>1582.16640496454</v>
       </c>
       <c r="H113" t="n">
-        <v>11283.6375865838</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I113" t="n">
         <v>8300</v>
@@ -9602,10 +9602,10 @@
         <v>420</v>
       </c>
       <c r="G114" t="n">
-        <v>1345.30950886711</v>
+        <v>1582.16640496454</v>
       </c>
       <c r="H114" t="n">
-        <v>11283.6375865838</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I114" t="n">
         <v>8300</v>
@@ -9687,10 +9687,10 @@
         <v>420</v>
       </c>
       <c r="G115" t="n">
-        <v>1345.30950886711</v>
+        <v>1582.16640496454</v>
       </c>
       <c r="H115" t="n">
-        <v>11283.6375865838</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I115" t="n">
         <v>8300</v>
@@ -10801,10 +10801,10 @@
         <v>437.5</v>
       </c>
       <c r="G129" t="n">
-        <v>1156.31575737429</v>
+        <v>1345.73970542572</v>
       </c>
       <c r="H129" t="n">
-        <v>10638.5386378493</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I129" t="n">
         <v>6000</v>
@@ -10886,10 +10886,10 @@
         <v>437.5</v>
       </c>
       <c r="G130" t="n">
-        <v>1156.31575737429</v>
+        <v>1345.73970542572</v>
       </c>
       <c r="H130" t="n">
-        <v>10638.5386378493</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I130" t="n">
         <v>6000</v>
@@ -10971,10 +10971,10 @@
         <v>437.5</v>
       </c>
       <c r="G131" t="n">
-        <v>1156.31575737429</v>
+        <v>1345.73970542572</v>
       </c>
       <c r="H131" t="n">
-        <v>10638.5386378493</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I131" t="n">
         <v>6000</v>
@@ -11056,10 +11056,10 @@
         <v>437.5</v>
       </c>
       <c r="G132" t="n">
-        <v>1156.31575737429</v>
+        <v>1345.73970542572</v>
       </c>
       <c r="H132" t="n">
-        <v>10638.5386378493</v>
+        <v>21625.1276248326</v>
       </c>
       <c r="I132" t="n">
         <v>6000</v>

--- a/state_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
+++ b/state_results/Rivers/PorewaatdsHuntervilleSTPsiteA_317291ec19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:U159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,13 +660,13 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.852422891483785</v>
+        <v>0.852396993114355</v>
       </c>
       <c r="H2">
         <v>2.7</v>
@@ -672,7 +675,7 @@
         <v>2.5325</v>
       </c>
       <c r="L2">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="M2">
         <v>1.789</v>
@@ -687,19 +690,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -716,13 +719,13 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>0.016</v>
       </c>
       <c r="G3">
-        <v>0.0219879584517876</v>
+        <v>0.0219709524989636</v>
       </c>
       <c r="H3">
         <v>0.161</v>
@@ -731,7 +734,7 @@
         <v>0.0487</v>
       </c>
       <c r="L3">
-        <v>0.0165</v>
+        <v>0.016</v>
       </c>
       <c r="M3">
         <v>0.02683</v>
@@ -746,19 +749,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -775,13 +778,13 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4">
         <v>0.016</v>
       </c>
       <c r="G4">
-        <v>0.0219879584517876</v>
+        <v>0.0219709524989636</v>
       </c>
       <c r="H4">
         <v>0.161</v>
@@ -790,7 +793,7 @@
         <v>0.0487</v>
       </c>
       <c r="L4">
-        <v>0.0165</v>
+        <v>0.016</v>
       </c>
       <c r="M4">
         <v>0.02683</v>
@@ -805,19 +808,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -834,16 +837,16 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>440</v>
       </c>
       <c r="G5">
-        <v>1427.31131817758</v>
+        <v>1324.99859055321</v>
       </c>
       <c r="H5">
-        <v>17315.8772270565</v>
+        <v>13000</v>
       </c>
       <c r="I5">
         <v>8326.6</v>
@@ -855,7 +858,7 @@
         <v>68.6274509803922</v>
       </c>
       <c r="L5">
-        <v>413.5</v>
+        <v>484</v>
       </c>
       <c r="M5">
         <v>1101.66</v>
@@ -870,19 +873,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -899,16 +902,16 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>440</v>
       </c>
       <c r="G6">
-        <v>1427.31131817758</v>
+        <v>1324.99859055321</v>
       </c>
       <c r="H6">
-        <v>17315.8772270565</v>
+        <v>13000</v>
       </c>
       <c r="I6">
         <v>8326.6</v>
@@ -920,7 +923,7 @@
         <v>68.6274509803922</v>
       </c>
       <c r="L6">
-        <v>413.5</v>
+        <v>484</v>
       </c>
       <c r="M6">
         <v>1101.66</v>
@@ -935,19 +938,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -964,16 +967,16 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>440</v>
       </c>
       <c r="G7">
-        <v>1427.31131817758</v>
+        <v>1324.99859055321</v>
       </c>
       <c r="H7">
-        <v>17315.8772270565</v>
+        <v>13000</v>
       </c>
       <c r="I7">
         <v>8326.6</v>
@@ -985,7 +988,7 @@
         <v>68.6274509803922</v>
       </c>
       <c r="L7">
-        <v>413.5</v>
+        <v>484</v>
       </c>
       <c r="M7">
         <v>1101.66</v>
@@ -1000,19 +1003,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1029,16 +1032,16 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>440</v>
       </c>
       <c r="G8">
-        <v>1427.31131817758</v>
+        <v>1324.99859055321</v>
       </c>
       <c r="H8">
-        <v>17315.8772270565</v>
+        <v>13000</v>
       </c>
       <c r="I8">
         <v>8326.6</v>
@@ -1050,7 +1053,7 @@
         <v>68.6274509803922</v>
       </c>
       <c r="L8">
-        <v>413.5</v>
+        <v>484</v>
       </c>
       <c r="M8">
         <v>1101.66</v>
@@ -1065,19 +1068,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1094,13 +1097,13 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9">
-        <v>0.00792</v>
+        <v>0.00367</v>
       </c>
       <c r="G9">
-        <v>0.0343032438657827</v>
+        <v>0.0326326358802535</v>
       </c>
       <c r="H9">
         <v>0.4241150551937</v>
@@ -1109,10 +1112,10 @@
         <v>0.16968</v>
       </c>
       <c r="L9">
-        <v>0.00329</v>
+        <v>0.00262</v>
       </c>
       <c r="M9">
-        <v>0.05255</v>
+        <v>0.05116</v>
       </c>
       <c r="N9">
         <v>0.139</v>
@@ -1124,19 +1127,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1153,13 +1156,13 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10">
-        <v>0.00792</v>
+        <v>0.00367</v>
       </c>
       <c r="G10">
-        <v>0.0343032438657827</v>
+        <v>0.0326326358802535</v>
       </c>
       <c r="H10">
         <v>0.4241150551937</v>
@@ -1168,10 +1171,10 @@
         <v>0.16968</v>
       </c>
       <c r="L10">
-        <v>0.00329</v>
+        <v>0.00262</v>
       </c>
       <c r="M10">
-        <v>0.05255</v>
+        <v>0.05116</v>
       </c>
       <c r="N10">
         <v>0.139</v>
@@ -1183,19 +1186,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1212,13 +1215,13 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11">
         <v>0.1572</v>
       </c>
       <c r="G11">
-        <v>0.22007712063839</v>
+        <v>0.220078288237581</v>
       </c>
       <c r="H11">
         <v>0.9295</v>
@@ -1227,7 +1230,7 @@
         <v>0.79171</v>
       </c>
       <c r="L11">
-        <v>0.00236</v>
+        <v>0.007</v>
       </c>
       <c r="M11">
         <v>0.41633</v>
@@ -1242,19 +1245,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1271,13 +1274,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0.1572</v>
       </c>
       <c r="G12">
-        <v>0.22007712063839</v>
+        <v>0.220078288237581</v>
       </c>
       <c r="H12">
         <v>0.9295</v>
@@ -1286,7 +1289,7 @@
         <v>0.79171</v>
       </c>
       <c r="L12">
-        <v>0.00236</v>
+        <v>0.007</v>
       </c>
       <c r="M12">
         <v>0.41633</v>
@@ -1301,19 +1304,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1327,13 +1330,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>0.1883</v>
       </c>
       <c r="G13">
-        <v>0.279002565463925</v>
+        <v>0.279004350587553</v>
       </c>
       <c r="H13">
         <v>1.07</v>
@@ -1342,7 +1345,7 @@
         <v>0.96397</v>
       </c>
       <c r="L13">
-        <v>0.0125</v>
+        <v>0.025</v>
       </c>
       <c r="M13">
         <v>0.5664400000000001</v>
@@ -1357,19 +1360,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1383,13 +1386,13 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <v>0.1883</v>
       </c>
       <c r="G14">
-        <v>0.279002565463925</v>
+        <v>0.279004350587553</v>
       </c>
       <c r="H14">
         <v>1.07</v>
@@ -1398,7 +1401,7 @@
         <v>0.96397</v>
       </c>
       <c r="L14">
-        <v>0.0125</v>
+        <v>0.025</v>
       </c>
       <c r="M14">
         <v>0.5664400000000001</v>
@@ -1413,19 +1416,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,7 +1442,7 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15">
         <v>0.748</v>
@@ -1454,7 +1457,7 @@
         <v>1.609</v>
       </c>
       <c r="L15">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M15">
         <v>1.2483</v>
@@ -1469,19 +1472,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1495,7 +1498,7 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <v>0.748</v>
@@ -1510,7 +1513,7 @@
         <v>1.609</v>
       </c>
       <c r="L16">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M16">
         <v>1.2483</v>
@@ -1525,19 +1528,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,7 +1554,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>0.064</v>
@@ -1566,7 +1569,7 @@
         <v>0.2187</v>
       </c>
       <c r="L17">
-        <v>0.0665</v>
+        <v>0.064</v>
       </c>
       <c r="M17">
         <v>0.13245</v>
@@ -1581,19 +1584,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1607,7 +1610,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>0.064</v>
@@ -1622,7 +1625,7 @@
         <v>0.2187</v>
       </c>
       <c r="L18">
-        <v>0.0665</v>
+        <v>0.064</v>
       </c>
       <c r="M18">
         <v>0.13245</v>
@@ -1637,19 +1640,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1666,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19">
         <v>60</v>
@@ -1681,7 +1684,7 @@
         <v>205.25</v>
       </c>
       <c r="L19">
-        <v>38.5</v>
+        <v>37.5</v>
       </c>
       <c r="M19">
         <v>125</v>
@@ -1696,19 +1699,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1725,13 +1728,13 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0.4</v>
       </c>
       <c r="G20">
-        <v>0.7052428150967049</v>
+        <v>0.705221970067652</v>
       </c>
       <c r="H20">
         <v>2.7</v>
@@ -1740,7 +1743,7 @@
         <v>2.325</v>
       </c>
       <c r="L20">
-        <v>0.59</v>
+        <v>0.395</v>
       </c>
       <c r="M20">
         <v>1.4906</v>
@@ -1755,19 +1758,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1784,13 +1787,13 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21">
         <v>0.016</v>
       </c>
       <c r="G21">
-        <v>0.0219226368286413</v>
+        <v>0.0219005481622764</v>
       </c>
       <c r="H21">
         <v>0.161</v>
@@ -1799,7 +1802,7 @@
         <v>0.054</v>
       </c>
       <c r="L21">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="M21">
         <v>0.029</v>
@@ -1814,19 +1817,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1843,13 +1846,13 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <v>0.016</v>
       </c>
       <c r="G22">
-        <v>0.0219226368286413</v>
+        <v>0.0219005481622764</v>
       </c>
       <c r="H22">
         <v>0.161</v>
@@ -1858,7 +1861,7 @@
         <v>0.054</v>
       </c>
       <c r="L22">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="M22">
         <v>0.029</v>
@@ -1873,19 +1876,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1902,19 +1905,19 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>529</v>
       </c>
       <c r="G23">
-        <v>1934.04795378428</v>
+        <v>1847.08213530356</v>
       </c>
       <c r="H23">
         <v>28000</v>
       </c>
       <c r="I23">
-        <v>9966</v>
+        <v>9514.96406</v>
       </c>
       <c r="J23">
         <v>48.3333333333333</v>
@@ -1923,7 +1926,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L23">
-        <v>512</v>
+        <v>580.5</v>
       </c>
       <c r="M23">
         <v>1710.9</v>
@@ -1938,19 +1941,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1967,19 +1970,19 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <v>529</v>
       </c>
       <c r="G24">
-        <v>1934.04795378428</v>
+        <v>1847.08213530356</v>
       </c>
       <c r="H24">
         <v>28000</v>
       </c>
       <c r="I24">
-        <v>9966</v>
+        <v>9514.96406</v>
       </c>
       <c r="J24">
         <v>48.3333333333333</v>
@@ -1988,7 +1991,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L24">
-        <v>512</v>
+        <v>580.5</v>
       </c>
       <c r="M24">
         <v>1710.9</v>
@@ -2003,19 +2006,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2032,19 +2035,19 @@
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>529</v>
       </c>
       <c r="G25">
-        <v>1934.04795378428</v>
+        <v>1847.08213530356</v>
       </c>
       <c r="H25">
         <v>28000</v>
       </c>
       <c r="I25">
-        <v>9966</v>
+        <v>9514.96406</v>
       </c>
       <c r="J25">
         <v>48.3333333333333</v>
@@ -2053,7 +2056,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L25">
-        <v>512</v>
+        <v>580.5</v>
       </c>
       <c r="M25">
         <v>1710.9</v>
@@ -2068,19 +2071,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2097,19 +2100,19 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>529</v>
       </c>
       <c r="G26">
-        <v>1934.04795378428</v>
+        <v>1847.08213530356</v>
       </c>
       <c r="H26">
         <v>28000</v>
       </c>
       <c r="I26">
-        <v>9966</v>
+        <v>9514.96406</v>
       </c>
       <c r="J26">
         <v>48.3333333333333</v>
@@ -2118,7 +2121,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L26">
-        <v>512</v>
+        <v>580.5</v>
       </c>
       <c r="M26">
         <v>1710.9</v>
@@ -2133,19 +2136,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2162,13 +2165,13 @@
         <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27">
-        <v>0.00878</v>
+        <v>0.00582</v>
       </c>
       <c r="G27">
-        <v>0.0457985982385281</v>
+        <v>0.0443624615492135</v>
       </c>
       <c r="H27">
         <v>0.861295420989555</v>
@@ -2177,10 +2180,10 @@
         <v>0.26102</v>
       </c>
       <c r="L27">
-        <v>0.00843</v>
+        <v>0.00336</v>
       </c>
       <c r="M27">
-        <v>0.04739</v>
+        <v>0.04337</v>
       </c>
       <c r="N27">
         <v>0.10827</v>
@@ -2192,19 +2195,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2221,13 +2224,13 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28">
-        <v>0.00878</v>
+        <v>0.00582</v>
       </c>
       <c r="G28">
-        <v>0.0457985982385281</v>
+        <v>0.0443624615492135</v>
       </c>
       <c r="H28">
         <v>0.861295420989555</v>
@@ -2236,10 +2239,10 @@
         <v>0.26102</v>
       </c>
       <c r="L28">
-        <v>0.00843</v>
+        <v>0.00336</v>
       </c>
       <c r="M28">
-        <v>0.04739</v>
+        <v>0.04337</v>
       </c>
       <c r="N28">
         <v>0.10827</v>
@@ -2251,19 +2254,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2280,13 +2283,13 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>0.18305</v>
       </c>
       <c r="G29">
-        <v>0.237737219209298</v>
+        <v>0.23773821166861</v>
       </c>
       <c r="H29">
         <v>0.9295</v>
@@ -2295,7 +2298,7 @@
         <v>0.7801</v>
       </c>
       <c r="L29">
-        <v>0.0055</v>
+        <v>0.018</v>
       </c>
       <c r="M29">
         <v>0.4621</v>
@@ -2310,19 +2313,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2339,13 +2342,13 @@
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <v>0.18305</v>
       </c>
       <c r="G30">
-        <v>0.237737219209298</v>
+        <v>0.23773821166861</v>
       </c>
       <c r="H30">
         <v>0.9295</v>
@@ -2354,7 +2357,7 @@
         <v>0.7801</v>
       </c>
       <c r="L30">
-        <v>0.0055</v>
+        <v>0.018</v>
       </c>
       <c r="M30">
         <v>0.4621</v>
@@ -2369,19 +2372,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2395,13 +2398,13 @@
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>0.25775</v>
       </c>
       <c r="G31">
-        <v>0.323573847311003</v>
+        <v>0.323575364666087</v>
       </c>
       <c r="H31">
         <v>1.6</v>
@@ -2410,7 +2413,7 @@
         <v>1.0026</v>
       </c>
       <c r="L31">
-        <v>0.0205</v>
+        <v>0.03225</v>
       </c>
       <c r="M31">
         <v>0.6086</v>
@@ -2425,19 +2428,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2451,13 +2454,13 @@
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32">
         <v>0.25775</v>
       </c>
       <c r="G32">
-        <v>0.323573847311003</v>
+        <v>0.323575364666087</v>
       </c>
       <c r="H32">
         <v>1.6</v>
@@ -2466,7 +2469,7 @@
         <v>1.0026</v>
       </c>
       <c r="L32">
-        <v>0.0205</v>
+        <v>0.03225</v>
       </c>
       <c r="M32">
         <v>0.6086</v>
@@ -2481,19 +2484,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2507,7 +2510,7 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>0.8285</v>
@@ -2522,7 +2525,7 @@
         <v>1.9775</v>
       </c>
       <c r="L33">
-        <v>0.703</v>
+        <v>0.7185</v>
       </c>
       <c r="M33">
         <v>1.2512</v>
@@ -2537,19 +2540,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2563,7 +2566,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>0.8285</v>
@@ -2578,7 +2581,7 @@
         <v>1.9775</v>
       </c>
       <c r="L34">
-        <v>0.703</v>
+        <v>0.7185</v>
       </c>
       <c r="M34">
         <v>1.2512</v>
@@ -2593,19 +2596,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2619,7 +2622,7 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <v>0.07000000000000001</v>
@@ -2649,19 +2652,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2675,7 +2678,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>0.07000000000000001</v>
@@ -2705,19 +2708,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2734,7 +2737,7 @@
         <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <v>65</v>
@@ -2749,7 +2752,7 @@
         <v>205</v>
       </c>
       <c r="L37">
-        <v>50.5</v>
+        <v>48.25</v>
       </c>
       <c r="M37">
         <v>145</v>
@@ -2764,19 +2767,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2793,13 +2796,13 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38">
         <v>0.32</v>
       </c>
       <c r="G38">
-        <v>0.558935221680104</v>
+        <v>0.55891703771859</v>
       </c>
       <c r="H38">
         <v>2.7</v>
@@ -2808,7 +2811,7 @@
         <v>1.815</v>
       </c>
       <c r="L38">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="M38">
         <v>1.1653</v>
@@ -2823,19 +2826,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2852,13 +2855,13 @@
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39">
         <v>0.016</v>
       </c>
       <c r="G39">
-        <v>0.0196226368286413</v>
+        <v>0.0196005481622764</v>
       </c>
       <c r="H39">
         <v>0.161</v>
@@ -2882,19 +2885,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2911,13 +2914,13 @@
         <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <v>0.016</v>
       </c>
       <c r="G40">
-        <v>0.0196226368286413</v>
+        <v>0.0196005481622764</v>
       </c>
       <c r="H40">
         <v>0.161</v>
@@ -2941,19 +2944,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2970,19 +2973,19 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>560</v>
       </c>
       <c r="G41">
-        <v>2009.1375113222</v>
+        <v>1900.3609994438</v>
       </c>
       <c r="H41">
         <v>28000</v>
       </c>
       <c r="I41">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J41">
         <v>50</v>
@@ -2991,7 +2994,7 @@
         <v>71.6666666666667</v>
       </c>
       <c r="L41">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="M41">
         <v>1360</v>
@@ -3006,19 +3009,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3035,19 +3038,19 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42">
         <v>560</v>
       </c>
       <c r="G42">
-        <v>2009.1375113222</v>
+        <v>1900.3609994438</v>
       </c>
       <c r="H42">
         <v>28000</v>
       </c>
       <c r="I42">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J42">
         <v>50</v>
@@ -3056,7 +3059,7 @@
         <v>71.6666666666667</v>
       </c>
       <c r="L42">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="M42">
         <v>1360</v>
@@ -3071,19 +3074,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3100,19 +3103,19 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43">
         <v>560</v>
       </c>
       <c r="G43">
-        <v>2009.1375113222</v>
+        <v>1900.3609994438</v>
       </c>
       <c r="H43">
         <v>28000</v>
       </c>
       <c r="I43">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J43">
         <v>50</v>
@@ -3121,7 +3124,7 @@
         <v>71.6666666666667</v>
       </c>
       <c r="L43">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="M43">
         <v>1360</v>
@@ -3136,19 +3139,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3165,19 +3168,19 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44">
         <v>560</v>
       </c>
       <c r="G44">
-        <v>2009.1375113222</v>
+        <v>1900.3609994438</v>
       </c>
       <c r="H44">
         <v>28000</v>
       </c>
       <c r="I44">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J44">
         <v>50</v>
@@ -3186,7 +3189,7 @@
         <v>71.6666666666667</v>
       </c>
       <c r="L44">
-        <v>595</v>
+        <v>710</v>
       </c>
       <c r="M44">
         <v>1360</v>
@@ -3201,19 +3204,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3230,13 +3233,13 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45">
-        <v>0.01</v>
+        <v>0.00682</v>
       </c>
       <c r="G45">
-        <v>0.0369575501618595</v>
+        <v>0.0355989964708885</v>
       </c>
       <c r="H45">
         <v>0.861295420989555</v>
@@ -3245,10 +3248,10 @@
         <v>0.17</v>
       </c>
       <c r="L45">
-        <v>0.0063</v>
+        <v>0.00628</v>
       </c>
       <c r="M45">
-        <v>0.02029</v>
+        <v>0.01906</v>
       </c>
       <c r="N45">
         <v>0.08402</v>
@@ -3260,19 +3263,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3289,13 +3292,13 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46">
-        <v>0.01</v>
+        <v>0.00682</v>
       </c>
       <c r="G46">
-        <v>0.0369575501618595</v>
+        <v>0.0355989964708885</v>
       </c>
       <c r="H46">
         <v>0.861295420989555</v>
@@ -3304,10 +3307,10 @@
         <v>0.17</v>
       </c>
       <c r="L46">
-        <v>0.0063</v>
+        <v>0.00628</v>
       </c>
       <c r="M46">
-        <v>0.02029</v>
+        <v>0.01906</v>
       </c>
       <c r="N46">
         <v>0.08402</v>
@@ -3319,19 +3322,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3348,13 +3351,13 @@
         <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <v>0.2247</v>
       </c>
       <c r="G47">
-        <v>0.241008195001138</v>
+        <v>0.241006495534683</v>
       </c>
       <c r="H47">
         <v>0.8439</v>
@@ -3363,7 +3366,7 @@
         <v>0.767</v>
       </c>
       <c r="L47">
-        <v>0.0055</v>
+        <v>0.018</v>
       </c>
       <c r="M47">
         <v>0.4377</v>
@@ -3378,19 +3381,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3407,13 +3410,13 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <v>0.2247</v>
       </c>
       <c r="G48">
-        <v>0.241008195001138</v>
+        <v>0.241006495534683</v>
       </c>
       <c r="H48">
         <v>0.8439</v>
@@ -3422,7 +3425,7 @@
         <v>0.767</v>
       </c>
       <c r="L48">
-        <v>0.0055</v>
+        <v>0.018</v>
       </c>
       <c r="M48">
         <v>0.4377</v>
@@ -3437,19 +3440,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3463,13 +3466,13 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49">
         <v>0.2725</v>
       </c>
       <c r="G49">
-        <v>0.312941787303887</v>
+        <v>0.312936915433631</v>
       </c>
       <c r="H49">
         <v>1.6</v>
@@ -3478,7 +3481,7 @@
         <v>0.8979</v>
       </c>
       <c r="L49">
-        <v>0.0251</v>
+        <v>0.03565</v>
       </c>
       <c r="M49">
         <v>0.535</v>
@@ -3493,19 +3496,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3519,13 +3522,13 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F50">
         <v>0.2725</v>
       </c>
       <c r="G50">
-        <v>0.312941787303887</v>
+        <v>0.312936915433631</v>
       </c>
       <c r="H50">
         <v>1.6</v>
@@ -3534,7 +3537,7 @@
         <v>0.8979</v>
       </c>
       <c r="L50">
-        <v>0.0251</v>
+        <v>0.03565</v>
       </c>
       <c r="M50">
         <v>0.535</v>
@@ -3549,19 +3552,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3575,7 +3578,7 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <v>0.86</v>
@@ -3590,7 +3593,7 @@
         <v>1.6</v>
       </c>
       <c r="L51">
-        <v>0.705</v>
+        <v>0.7205</v>
       </c>
       <c r="M51">
         <v>1.24</v>
@@ -3605,19 +3608,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3631,7 +3634,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52">
         <v>0.86</v>
@@ -3646,7 +3649,7 @@
         <v>1.6</v>
       </c>
       <c r="L52">
-        <v>0.705</v>
+        <v>0.7205</v>
       </c>
       <c r="M52">
         <v>1.24</v>
@@ -3661,19 +3664,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3687,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <v>0.07199999999999999</v>
@@ -3702,7 +3705,7 @@
         <v>0.209</v>
       </c>
       <c r="L53">
-        <v>0.07199999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="M53">
         <v>0.1253</v>
@@ -3717,19 +3720,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3743,7 +3746,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>0.07199999999999999</v>
@@ -3758,7 +3761,7 @@
         <v>0.209</v>
       </c>
       <c r="L54">
-        <v>0.07199999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="M54">
         <v>0.1253</v>
@@ -3773,19 +3776,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3802,7 +3805,7 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>65</v>
@@ -3817,7 +3820,7 @@
         <v>205.25</v>
       </c>
       <c r="L55">
-        <v>62.5</v>
+        <v>57.5</v>
       </c>
       <c r="M55">
         <v>151.7</v>
@@ -3832,19 +3835,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3861,13 +3864,13 @@
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <v>0.275</v>
       </c>
       <c r="G56">
-        <v>0.332975129022974</v>
+        <v>0.332954780304136</v>
       </c>
       <c r="H56">
         <v>1.18</v>
@@ -3876,7 +3879,7 @@
         <v>1.048</v>
       </c>
       <c r="L56">
-        <v>0.29</v>
+        <v>0.2675</v>
       </c>
       <c r="M56">
         <v>0.5688</v>
@@ -3891,19 +3894,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3920,13 +3923,13 @@
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F57">
         <v>0.017</v>
       </c>
       <c r="G57">
-        <v>0.0211226368286413</v>
+        <v>0.0211005481622764</v>
       </c>
       <c r="H57">
         <v>0.161</v>
@@ -3950,19 +3953,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3979,13 +3982,13 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58">
         <v>0.017</v>
       </c>
       <c r="G58">
-        <v>0.0211226368286413</v>
+        <v>0.0211005481622764</v>
       </c>
       <c r="H58">
         <v>0.161</v>
@@ -4009,19 +4012,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4038,19 +4041,19 @@
         <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>630</v>
       </c>
       <c r="G59">
-        <v>2247.67084465553</v>
+        <v>2138.89433277714</v>
       </c>
       <c r="H59">
         <v>28000</v>
       </c>
       <c r="I59">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J59">
         <v>56.6666666666667</v>
@@ -4059,7 +4062,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L59">
-        <v>457</v>
+        <v>630</v>
       </c>
       <c r="M59">
         <v>2090</v>
@@ -4074,19 +4077,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4103,19 +4106,19 @@
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F60">
         <v>630</v>
       </c>
       <c r="G60">
-        <v>2247.67084465553</v>
+        <v>2138.89433277714</v>
       </c>
       <c r="H60">
         <v>28000</v>
       </c>
       <c r="I60">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J60">
         <v>56.6666666666667</v>
@@ -4124,7 +4127,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L60">
-        <v>457</v>
+        <v>630</v>
       </c>
       <c r="M60">
         <v>2090</v>
@@ -4139,19 +4142,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4168,19 +4171,19 @@
         <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <v>630</v>
       </c>
       <c r="G61">
-        <v>2247.67084465553</v>
+        <v>2138.89433277714</v>
       </c>
       <c r="H61">
         <v>28000</v>
       </c>
       <c r="I61">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J61">
         <v>56.6666666666667</v>
@@ -4189,7 +4192,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L61">
-        <v>457</v>
+        <v>630</v>
       </c>
       <c r="M61">
         <v>2090</v>
@@ -4204,19 +4207,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4233,19 +4236,19 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62">
         <v>630</v>
       </c>
       <c r="G62">
-        <v>2247.67084465553</v>
+        <v>2138.89433277714</v>
       </c>
       <c r="H62">
         <v>28000</v>
       </c>
       <c r="I62">
-        <v>12964.68673</v>
+        <v>11859.32998</v>
       </c>
       <c r="J62">
         <v>56.6666666666667</v>
@@ -4254,7 +4257,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L62">
-        <v>457</v>
+        <v>630</v>
       </c>
       <c r="M62">
         <v>2090</v>
@@ -4269,19 +4272,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4298,13 +4301,13 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F63">
         <v>0.0111</v>
       </c>
       <c r="G63">
-        <v>0.0440218878255916</v>
+        <v>0.0439824754885621</v>
       </c>
       <c r="H63">
         <v>0.861295420989555</v>
@@ -4313,10 +4316,10 @@
         <v>0.26141</v>
       </c>
       <c r="L63">
-        <v>0.01009</v>
+        <v>0.01056</v>
       </c>
       <c r="M63">
-        <v>0.02463</v>
+        <v>0.02459</v>
       </c>
       <c r="N63">
         <v>0.1018</v>
@@ -4328,19 +4331,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4357,13 +4360,13 @@
         <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64">
         <v>0.0111</v>
       </c>
       <c r="G64">
-        <v>0.0440218878255916</v>
+        <v>0.0439824754885621</v>
       </c>
       <c r="H64">
         <v>0.861295420989555</v>
@@ -4372,10 +4375,10 @@
         <v>0.26141</v>
       </c>
       <c r="L64">
-        <v>0.01009</v>
+        <v>0.01056</v>
       </c>
       <c r="M64">
-        <v>0.02463</v>
+        <v>0.02459</v>
       </c>
       <c r="N64">
         <v>0.1018</v>
@@ -4387,19 +4390,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4416,13 +4419,13 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65">
         <v>0.2375</v>
       </c>
       <c r="G65">
-        <v>0.262561622287307</v>
+        <v>0.262552121547019</v>
       </c>
       <c r="H65">
         <v>1.14</v>
@@ -4431,7 +4434,7 @@
         <v>0.767</v>
       </c>
       <c r="L65">
-        <v>0.00636</v>
+        <v>0.0155</v>
       </c>
       <c r="M65">
         <v>0.4985</v>
@@ -4446,19 +4449,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4475,13 +4478,13 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66">
         <v>0.2375</v>
       </c>
       <c r="G66">
-        <v>0.262561622287307</v>
+        <v>0.262552121547019</v>
       </c>
       <c r="H66">
         <v>1.14</v>
@@ -4490,7 +4493,7 @@
         <v>0.767</v>
       </c>
       <c r="L66">
-        <v>0.00636</v>
+        <v>0.0155</v>
       </c>
       <c r="M66">
         <v>0.4985</v>
@@ -4505,19 +4508,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4531,13 +4534,13 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67">
         <v>0.2775</v>
       </c>
       <c r="G67">
-        <v>0.337288924702123</v>
+        <v>0.337270922761073</v>
       </c>
       <c r="H67">
         <v>1.6</v>
@@ -4546,7 +4549,7 @@
         <v>0.993</v>
       </c>
       <c r="L67">
-        <v>0.0235</v>
+        <v>0.0285</v>
       </c>
       <c r="M67">
         <v>0.608</v>
@@ -4561,19 +4564,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4587,13 +4590,13 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F68">
         <v>0.2775</v>
       </c>
       <c r="G68">
-        <v>0.337288924702123</v>
+        <v>0.337270922761073</v>
       </c>
       <c r="H68">
         <v>1.6</v>
@@ -4602,7 +4605,7 @@
         <v>0.993</v>
       </c>
       <c r="L68">
-        <v>0.0235</v>
+        <v>0.0285</v>
       </c>
       <c r="M68">
         <v>0.608</v>
@@ -4617,19 +4620,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4643,7 +4646,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <v>0.87</v>
@@ -4673,19 +4676,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4699,7 +4702,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F70">
         <v>0.87</v>
@@ -4729,19 +4732,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4755,7 +4758,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71">
         <v>0.0745</v>
@@ -4770,7 +4773,7 @@
         <v>0.2385</v>
       </c>
       <c r="L71">
-        <v>0.0755</v>
+        <v>0.0775</v>
       </c>
       <c r="M71">
         <v>0.1272</v>
@@ -4785,19 +4788,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4811,7 +4814,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <v>0.0745</v>
@@ -4826,7 +4829,7 @@
         <v>0.2385</v>
       </c>
       <c r="L72">
-        <v>0.0755</v>
+        <v>0.0775</v>
       </c>
       <c r="M72">
         <v>0.1272</v>
@@ -4841,19 +4844,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4870,7 +4873,7 @@
         <v>49</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73">
         <v>52.5</v>
@@ -4885,7 +4888,7 @@
         <v>185</v>
       </c>
       <c r="L73">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M73">
         <v>120</v>
@@ -4900,19 +4903,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4929,7 +4932,7 @@
         <v>49</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <v>0.275</v>
@@ -4944,7 +4947,7 @@
         <v>0.918</v>
       </c>
       <c r="L74">
-        <v>0.29</v>
+        <v>0.2675</v>
       </c>
       <c r="M74">
         <v>0.4806</v>
@@ -4959,19 +4962,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4988,13 +4991,13 @@
         <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F75">
         <v>0.018</v>
       </c>
       <c r="G75">
-        <v>0.020887427283364</v>
+        <v>0.0208649642328235</v>
       </c>
       <c r="H75">
         <v>0.076</v>
@@ -5003,7 +5006,7 @@
         <v>0.04155</v>
       </c>
       <c r="L75">
-        <v>0.0215</v>
+        <v>0.021</v>
       </c>
       <c r="M75">
         <v>0.03041</v>
@@ -5018,19 +5021,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5047,13 +5050,13 @@
         <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76">
         <v>0.018</v>
       </c>
       <c r="G76">
-        <v>0.020887427283364</v>
+        <v>0.0208649642328235</v>
       </c>
       <c r="H76">
         <v>0.076</v>
@@ -5062,7 +5065,7 @@
         <v>0.04155</v>
       </c>
       <c r="L76">
-        <v>0.0215</v>
+        <v>0.021</v>
       </c>
       <c r="M76">
         <v>0.03041</v>
@@ -5077,19 +5080,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5106,19 +5109,19 @@
         <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F77">
         <v>650</v>
       </c>
       <c r="G77">
-        <v>2353.15679117512</v>
+        <v>2242.53660960387</v>
       </c>
       <c r="H77">
         <v>28000</v>
       </c>
       <c r="I77">
-        <v>12968.21805</v>
+        <v>11883.1898</v>
       </c>
       <c r="J77">
         <v>55.9322033898305</v>
@@ -5127,7 +5130,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L77">
-        <v>485</v>
+        <v>610</v>
       </c>
       <c r="M77">
         <v>2770</v>
@@ -5142,19 +5145,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5171,19 +5174,19 @@
         <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F78">
         <v>650</v>
       </c>
       <c r="G78">
-        <v>2353.15679117512</v>
+        <v>2242.53660960387</v>
       </c>
       <c r="H78">
         <v>28000</v>
       </c>
       <c r="I78">
-        <v>12968.21805</v>
+        <v>11883.1898</v>
       </c>
       <c r="J78">
         <v>55.9322033898305</v>
@@ -5192,7 +5195,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L78">
-        <v>485</v>
+        <v>610</v>
       </c>
       <c r="M78">
         <v>2770</v>
@@ -5207,19 +5210,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5236,19 +5239,19 @@
         <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F79">
         <v>650</v>
       </c>
       <c r="G79">
-        <v>2353.15679117512</v>
+        <v>2242.53660960387</v>
       </c>
       <c r="H79">
         <v>28000</v>
       </c>
       <c r="I79">
-        <v>12968.21805</v>
+        <v>11883.1898</v>
       </c>
       <c r="J79">
         <v>55.9322033898305</v>
@@ -5257,7 +5260,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L79">
-        <v>485</v>
+        <v>610</v>
       </c>
       <c r="M79">
         <v>2770</v>
@@ -5272,19 +5275,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5301,19 +5304,19 @@
         <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80">
         <v>650</v>
       </c>
       <c r="G80">
-        <v>2353.15679117512</v>
+        <v>2242.53660960387</v>
       </c>
       <c r="H80">
         <v>28000</v>
       </c>
       <c r="I80">
-        <v>12968.21805</v>
+        <v>11883.1898</v>
       </c>
       <c r="J80">
         <v>55.9322033898305</v>
@@ -5322,7 +5325,7 @@
         <v>76.27118644067799</v>
       </c>
       <c r="L80">
-        <v>485</v>
+        <v>610</v>
       </c>
       <c r="M80">
         <v>2770</v>
@@ -5337,19 +5340,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5366,13 +5369,13 @@
         <v>49</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F81">
         <v>0.01207</v>
       </c>
       <c r="G81">
-        <v>0.0471510898258146</v>
+        <v>0.0471153968000712</v>
       </c>
       <c r="H81">
         <v>0.861295420989555</v>
@@ -5381,10 +5384,10 @@
         <v>0.2918</v>
       </c>
       <c r="L81">
-        <v>0.01522</v>
+        <v>0.01777</v>
       </c>
       <c r="M81">
-        <v>0.02546</v>
+        <v>0.02536</v>
       </c>
       <c r="N81">
         <v>0.121</v>
@@ -5396,19 +5399,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5425,13 +5428,13 @@
         <v>49</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F82">
         <v>0.01207</v>
       </c>
       <c r="G82">
-        <v>0.0471510898258146</v>
+        <v>0.0471153968000712</v>
       </c>
       <c r="H82">
         <v>0.861295420989555</v>
@@ -5440,10 +5443,10 @@
         <v>0.2918</v>
       </c>
       <c r="L82">
-        <v>0.01522</v>
+        <v>0.01777</v>
       </c>
       <c r="M82">
-        <v>0.02546</v>
+        <v>0.02536</v>
       </c>
       <c r="N82">
         <v>0.121</v>
@@ -5455,19 +5458,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5484,13 +5487,13 @@
         <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F83">
         <v>0.246</v>
       </c>
       <c r="G83">
-        <v>0.267361805343265</v>
+        <v>0.267341956463592</v>
       </c>
       <c r="H83">
         <v>1.14</v>
@@ -5499,7 +5502,7 @@
         <v>0.7282</v>
       </c>
       <c r="L83">
-        <v>0.01086</v>
+        <v>0.015</v>
       </c>
       <c r="M83">
         <v>0.50445</v>
@@ -5514,19 +5517,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5543,13 +5546,13 @@
         <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F84">
         <v>0.246</v>
       </c>
       <c r="G84">
-        <v>0.267361805343265</v>
+        <v>0.267341956463592</v>
       </c>
       <c r="H84">
         <v>1.14</v>
@@ -5558,7 +5561,7 @@
         <v>0.7282</v>
       </c>
       <c r="L84">
-        <v>0.01086</v>
+        <v>0.015</v>
       </c>
       <c r="M84">
         <v>0.50445</v>
@@ -5573,19 +5576,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5599,13 +5602,13 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F85">
         <v>0.275</v>
       </c>
       <c r="G85">
-        <v>0.327031043589391</v>
+        <v>0.327010082714885</v>
       </c>
       <c r="H85">
         <v>1.6</v>
@@ -5614,7 +5617,7 @@
         <v>0.91665</v>
       </c>
       <c r="L85">
-        <v>0.0285</v>
+        <v>0.032</v>
       </c>
       <c r="M85">
         <v>0.5794</v>
@@ -5629,19 +5632,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5655,13 +5658,13 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F86">
         <v>0.275</v>
       </c>
       <c r="G86">
-        <v>0.327031043589391</v>
+        <v>0.327010082714885</v>
       </c>
       <c r="H86">
         <v>1.6</v>
@@ -5670,7 +5673,7 @@
         <v>0.91665</v>
       </c>
       <c r="L86">
-        <v>0.0285</v>
+        <v>0.032</v>
       </c>
       <c r="M86">
         <v>0.5794</v>
@@ -5685,19 +5688,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5711,7 +5714,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F87">
         <v>0.87</v>
@@ -5726,7 +5729,7 @@
         <v>1.7245</v>
       </c>
       <c r="L87">
-        <v>0.8149999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M87">
         <v>1.2294</v>
@@ -5741,19 +5744,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5767,7 +5770,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F88">
         <v>0.87</v>
@@ -5782,7 +5785,7 @@
         <v>1.7245</v>
       </c>
       <c r="L88">
-        <v>0.8149999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M88">
         <v>1.2294</v>
@@ -5797,19 +5800,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5823,7 +5826,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F89">
         <v>0.075</v>
@@ -5838,7 +5841,7 @@
         <v>0.22045</v>
       </c>
       <c r="L89">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M89">
         <v>0.13799</v>
@@ -5853,19 +5856,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5879,7 +5882,7 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F90">
         <v>0.075</v>
@@ -5894,7 +5897,7 @@
         <v>0.22045</v>
       </c>
       <c r="L90">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M90">
         <v>0.13799</v>
@@ -5909,19 +5912,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5938,7 +5941,7 @@
         <v>50</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -5968,19 +5971,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5997,7 +6000,7 @@
         <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F92">
         <v>0.3</v>
@@ -6012,7 +6015,7 @@
         <v>0.95</v>
       </c>
       <c r="L92">
-        <v>0.34</v>
+        <v>0.2675</v>
       </c>
       <c r="M92">
         <v>0.486</v>
@@ -6027,19 +6030,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6056,13 +6059,13 @@
         <v>50</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F93">
         <v>0.019</v>
       </c>
       <c r="G93">
-        <v>0.0233893615030052</v>
+        <v>0.0233815985133804</v>
       </c>
       <c r="H93">
         <v>0.076</v>
@@ -6071,7 +6074,7 @@
         <v>0.051</v>
       </c>
       <c r="L93">
-        <v>0.0225</v>
+        <v>0.023</v>
       </c>
       <c r="M93">
         <v>0.03947</v>
@@ -6086,19 +6089,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6115,13 +6118,13 @@
         <v>50</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F94">
         <v>0.019</v>
       </c>
       <c r="G94">
-        <v>0.0233893615030052</v>
+        <v>0.0233815985133804</v>
       </c>
       <c r="H94">
         <v>0.076</v>
@@ -6130,7 +6133,7 @@
         <v>0.051</v>
       </c>
       <c r="L94">
-        <v>0.0225</v>
+        <v>0.023</v>
       </c>
       <c r="M94">
         <v>0.03947</v>
@@ -6145,19 +6148,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6174,13 +6177,13 @@
         <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <v>650</v>
       </c>
       <c r="G95">
-        <v>1926.0910754623</v>
+        <v>1903.91070929516</v>
       </c>
       <c r="H95">
         <v>28000</v>
@@ -6195,7 +6198,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L95">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="M95">
         <v>1876</v>
@@ -6210,19 +6213,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6239,13 +6242,13 @@
         <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <v>650</v>
       </c>
       <c r="G96">
-        <v>1926.0910754623</v>
+        <v>1903.91070929516</v>
       </c>
       <c r="H96">
         <v>28000</v>
@@ -6260,7 +6263,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L96">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="M96">
         <v>1876</v>
@@ -6275,19 +6278,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6304,13 +6307,13 @@
         <v>50</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97">
         <v>650</v>
       </c>
       <c r="G97">
-        <v>1926.0910754623</v>
+        <v>1903.91070929516</v>
       </c>
       <c r="H97">
         <v>28000</v>
@@ -6325,7 +6328,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L97">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="M97">
         <v>1876</v>
@@ -6340,19 +6343,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6369,13 +6372,13 @@
         <v>50</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F98">
         <v>650</v>
       </c>
       <c r="G98">
-        <v>1926.0910754623</v>
+        <v>1903.91070929516</v>
       </c>
       <c r="H98">
         <v>28000</v>
@@ -6390,7 +6393,7 @@
         <v>71.1864406779661</v>
       </c>
       <c r="L98">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="M98">
         <v>1876</v>
@@ -6405,19 +6408,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6434,13 +6437,13 @@
         <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99">
         <v>0.01421</v>
       </c>
       <c r="G99">
-        <v>0.0544552248571955</v>
+        <v>0.0544502582873161</v>
       </c>
       <c r="H99">
         <v>0.861295420989555</v>
@@ -6449,7 +6452,7 @@
         <v>0.29034</v>
       </c>
       <c r="L99">
-        <v>0.01891</v>
+        <v>0.01868</v>
       </c>
       <c r="M99">
         <v>0.05447</v>
@@ -6464,19 +6467,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6493,13 +6496,13 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F100">
         <v>0.01421</v>
       </c>
       <c r="G100">
-        <v>0.0544552248571955</v>
+        <v>0.0544502582873161</v>
       </c>
       <c r="H100">
         <v>0.861295420989555</v>
@@ -6508,7 +6511,7 @@
         <v>0.29034</v>
       </c>
       <c r="L100">
-        <v>0.01891</v>
+        <v>0.01868</v>
       </c>
       <c r="M100">
         <v>0.05447</v>
@@ -6523,19 +6526,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6552,13 +6555,13 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F101">
         <v>0.242</v>
       </c>
       <c r="G101">
-        <v>0.260560451761166</v>
+        <v>0.260534780028098</v>
       </c>
       <c r="H101">
         <v>1.14</v>
@@ -6567,7 +6570,7 @@
         <v>0.7106</v>
       </c>
       <c r="L101">
-        <v>0.0195</v>
+        <v>0.025</v>
       </c>
       <c r="M101">
         <v>0.50445</v>
@@ -6582,19 +6585,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6611,13 +6614,13 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F102">
         <v>0.242</v>
       </c>
       <c r="G102">
-        <v>0.260560451761166</v>
+        <v>0.260534780028098</v>
       </c>
       <c r="H102">
         <v>1.14</v>
@@ -6626,7 +6629,7 @@
         <v>0.7106</v>
       </c>
       <c r="L102">
-        <v>0.0195</v>
+        <v>0.025</v>
       </c>
       <c r="M102">
         <v>0.50445</v>
@@ -6641,19 +6644,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6667,13 +6670,13 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F103">
         <v>0.275</v>
       </c>
       <c r="G103">
-        <v>0.324233977007919</v>
+        <v>0.324214126876257</v>
       </c>
       <c r="H103">
         <v>1.6</v>
@@ -6682,7 +6685,7 @@
         <v>0.9351</v>
       </c>
       <c r="L103">
-        <v>0.061</v>
+        <v>0.067</v>
       </c>
       <c r="M103">
         <v>0.56947</v>
@@ -6697,19 +6700,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6723,13 +6726,13 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F104">
         <v>0.275</v>
       </c>
       <c r="G104">
-        <v>0.324233977007919</v>
+        <v>0.324214126876257</v>
       </c>
       <c r="H104">
         <v>1.6</v>
@@ -6738,7 +6741,7 @@
         <v>0.9351</v>
       </c>
       <c r="L104">
-        <v>0.061</v>
+        <v>0.067</v>
       </c>
       <c r="M104">
         <v>0.56947</v>
@@ -6753,19 +6756,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6779,7 +6782,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F105">
         <v>0.87</v>
@@ -6794,7 +6797,7 @@
         <v>1.7245</v>
       </c>
       <c r="L105">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M105">
         <v>1.1847</v>
@@ -6809,19 +6812,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6835,7 +6838,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F106">
         <v>0.87</v>
@@ -6850,7 +6853,7 @@
         <v>1.7245</v>
       </c>
       <c r="L106">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M106">
         <v>1.1847</v>
@@ -6865,19 +6868,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6891,7 +6894,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107">
         <v>0.075</v>
@@ -6906,7 +6909,7 @@
         <v>0.18575</v>
       </c>
       <c r="L107">
-        <v>0.0925</v>
+        <v>0.092</v>
       </c>
       <c r="M107">
         <v>0.125</v>
@@ -6921,19 +6924,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6947,7 +6950,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F108">
         <v>0.075</v>
@@ -6962,7 +6965,7 @@
         <v>0.18575</v>
       </c>
       <c r="L108">
-        <v>0.0925</v>
+        <v>0.092</v>
       </c>
       <c r="M108">
         <v>0.125</v>
@@ -6977,19 +6980,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7006,7 +7009,7 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F109">
         <v>55</v>
@@ -7021,7 +7024,7 @@
         <v>180</v>
       </c>
       <c r="L109">
-        <v>35</v>
+        <v>41.5</v>
       </c>
       <c r="M109">
         <v>115</v>
@@ -7036,19 +7039,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7065,7 +7068,7 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F110">
         <v>0.019</v>
@@ -7080,7 +7083,7 @@
         <v>0.0474</v>
       </c>
       <c r="L110">
-        <v>0.022</v>
+        <v>0.0225</v>
       </c>
       <c r="M110">
         <v>0.03392</v>
@@ -7095,19 +7098,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7124,7 +7127,7 @@
         <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F111">
         <v>0.019</v>
@@ -7139,7 +7142,7 @@
         <v>0.0474</v>
       </c>
       <c r="L111">
-        <v>0.022</v>
+        <v>0.0225</v>
       </c>
       <c r="M111">
         <v>0.03392</v>
@@ -7154,19 +7157,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7183,16 +7186,16 @@
         <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F112">
         <v>420</v>
       </c>
       <c r="G112">
-        <v>1504.72658145614</v>
+        <v>1540.02450233305</v>
       </c>
       <c r="H112">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I112">
         <v>8300</v>
@@ -7204,7 +7207,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L112">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="M112">
         <v>1464</v>
@@ -7219,19 +7222,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7248,16 +7251,16 @@
         <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F113">
         <v>420</v>
       </c>
       <c r="G113">
-        <v>1504.72658145614</v>
+        <v>1540.02450233305</v>
       </c>
       <c r="H113">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I113">
         <v>8300</v>
@@ -7269,7 +7272,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L113">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="M113">
         <v>1464</v>
@@ -7284,19 +7287,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7313,16 +7316,16 @@
         <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F114">
         <v>420</v>
       </c>
       <c r="G114">
-        <v>1504.72658145614</v>
+        <v>1540.02450233305</v>
       </c>
       <c r="H114">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I114">
         <v>8300</v>
@@ -7334,7 +7337,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L114">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="M114">
         <v>1464</v>
@@ -7349,19 +7352,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7378,16 +7381,16 @@
         <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F115">
         <v>420</v>
       </c>
       <c r="G115">
-        <v>1504.72658145614</v>
+        <v>1540.02450233305</v>
       </c>
       <c r="H115">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I115">
         <v>8300</v>
@@ -7399,7 +7402,7 @@
         <v>67.2413793103448</v>
       </c>
       <c r="L115">
-        <v>270</v>
+        <v>395</v>
       </c>
       <c r="M115">
         <v>1464</v>
@@ -7414,19 +7417,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7443,13 +7446,13 @@
         <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116">
-        <v>0.01351</v>
+        <v>0.01356</v>
       </c>
       <c r="G116">
-        <v>0.0328886605655647</v>
+        <v>0.0328836939956854</v>
       </c>
       <c r="H116">
         <v>0.390994438041885</v>
@@ -7458,7 +7461,7 @@
         <v>0.145</v>
       </c>
       <c r="L116">
-        <v>0.01837</v>
+        <v>0.01829</v>
       </c>
       <c r="M116">
         <v>0.0309</v>
@@ -7473,19 +7476,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7502,13 +7505,13 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F117">
-        <v>0.01351</v>
+        <v>0.01356</v>
       </c>
       <c r="G117">
-        <v>0.0328886605655647</v>
+        <v>0.0328836939956854</v>
       </c>
       <c r="H117">
         <v>0.390994438041885</v>
@@ -7517,7 +7520,7 @@
         <v>0.145</v>
       </c>
       <c r="L117">
-        <v>0.01837</v>
+        <v>0.01829</v>
       </c>
       <c r="M117">
         <v>0.0309</v>
@@ -7532,19 +7535,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7561,13 +7564,13 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F118">
         <v>0.224</v>
       </c>
       <c r="G118">
-        <v>0.299639080239807</v>
+        <v>0.299612965890652</v>
       </c>
       <c r="H118">
         <v>1.53</v>
@@ -7576,7 +7579,7 @@
         <v>0.9568</v>
       </c>
       <c r="L118">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="M118">
         <v>0.61912</v>
@@ -7591,19 +7594,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7620,13 +7623,13 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F119">
         <v>0.224</v>
       </c>
       <c r="G119">
-        <v>0.299639080239807</v>
+        <v>0.299612965890652</v>
       </c>
       <c r="H119">
         <v>1.53</v>
@@ -7635,7 +7638,7 @@
         <v>0.9568</v>
       </c>
       <c r="L119">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="M119">
         <v>0.61912</v>
@@ -7650,19 +7653,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U119" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7676,13 +7679,13 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F120">
         <v>0.253</v>
       </c>
       <c r="G120">
-        <v>0.330341459370124</v>
+        <v>0.330321266994814</v>
       </c>
       <c r="H120">
         <v>1.57</v>
@@ -7691,7 +7694,7 @@
         <v>1.004</v>
       </c>
       <c r="L120">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="M120">
         <v>0.65748</v>
@@ -7706,19 +7709,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7732,13 +7735,13 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F121">
         <v>0.253</v>
       </c>
       <c r="G121">
-        <v>0.330341459370124</v>
+        <v>0.330321266994814</v>
       </c>
       <c r="H121">
         <v>1.57</v>
@@ -7747,7 +7750,7 @@
         <v>1.004</v>
       </c>
       <c r="L121">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="M121">
         <v>0.65748</v>
@@ -7762,19 +7765,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7788,7 +7791,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F122">
         <v>0.825</v>
@@ -7803,7 +7806,7 @@
         <v>1.616</v>
       </c>
       <c r="L122">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="M122">
         <v>1.1764</v>
@@ -7818,19 +7821,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7844,7 +7847,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F123">
         <v>0.825</v>
@@ -7859,7 +7862,7 @@
         <v>1.616</v>
       </c>
       <c r="L123">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="M123">
         <v>1.1764</v>
@@ -7874,19 +7877,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U123" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7900,7 +7903,7 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F124">
         <v>0.073</v>
@@ -7915,7 +7918,7 @@
         <v>0.175</v>
       </c>
       <c r="L124">
-        <v>0.092</v>
+        <v>0.0885</v>
       </c>
       <c r="M124">
         <v>0.10092</v>
@@ -7930,19 +7933,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7956,7 +7959,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F125">
         <v>0.073</v>
@@ -7971,7 +7974,7 @@
         <v>0.175</v>
       </c>
       <c r="L125">
-        <v>0.092</v>
+        <v>0.0885</v>
       </c>
       <c r="M125">
         <v>0.10092</v>
@@ -7986,19 +7989,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8015,7 +8018,7 @@
         <v>52</v>
       </c>
       <c r="E126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F126">
         <v>47.75</v>
@@ -8030,7 +8033,7 @@
         <v>150</v>
       </c>
       <c r="L126">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="M126">
         <v>95</v>
@@ -8045,19 +8048,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8074,7 +8077,7 @@
         <v>52</v>
       </c>
       <c r="E127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F127">
         <v>0.0195</v>
@@ -8089,7 +8092,7 @@
         <v>0.0474</v>
       </c>
       <c r="L127">
-        <v>0.022</v>
+        <v>0.0225</v>
       </c>
       <c r="M127">
         <v>0.03392</v>
@@ -8104,19 +8107,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8133,7 +8136,7 @@
         <v>52</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F128">
         <v>0.0195</v>
@@ -8148,7 +8151,7 @@
         <v>0.0474</v>
       </c>
       <c r="L128">
-        <v>0.022</v>
+        <v>0.0225</v>
       </c>
       <c r="M128">
         <v>0.03392</v>
@@ -8163,19 +8166,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8192,16 +8195,16 @@
         <v>52</v>
       </c>
       <c r="E129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F129">
-        <v>437.5</v>
+        <v>437.4</v>
       </c>
       <c r="G129">
-        <v>1287.35807365829</v>
+        <v>1345.21188425693</v>
       </c>
       <c r="H129">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I129">
         <v>6000</v>
@@ -8213,13 +8216,13 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L129">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="M129">
-        <v>1392.44</v>
+        <v>1392.512</v>
       </c>
       <c r="N129">
-        <v>3201.3</v>
+        <v>3201.328</v>
       </c>
       <c r="O129">
         <v>1819553.54</v>
@@ -8228,19 +8231,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8257,16 +8260,16 @@
         <v>52</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130">
-        <v>437.5</v>
+        <v>437.4</v>
       </c>
       <c r="G130">
-        <v>1287.35807365829</v>
+        <v>1345.21188425693</v>
       </c>
       <c r="H130">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I130">
         <v>6000</v>
@@ -8278,13 +8281,13 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L130">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="M130">
-        <v>1392.44</v>
+        <v>1392.512</v>
       </c>
       <c r="N130">
-        <v>3201.3</v>
+        <v>3201.328</v>
       </c>
       <c r="O130">
         <v>1819553.54</v>
@@ -8293,19 +8296,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8322,16 +8325,16 @@
         <v>52</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F131">
-        <v>437.5</v>
+        <v>437.4</v>
       </c>
       <c r="G131">
-        <v>1287.35807365829</v>
+        <v>1345.21188425693</v>
       </c>
       <c r="H131">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I131">
         <v>6000</v>
@@ -8343,13 +8346,13 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L131">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="M131">
-        <v>1392.44</v>
+        <v>1392.512</v>
       </c>
       <c r="N131">
-        <v>3201.3</v>
+        <v>3201.328</v>
       </c>
       <c r="O131">
         <v>1819553.54</v>
@@ -8358,19 +8361,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8387,16 +8390,16 @@
         <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F132">
-        <v>437.5</v>
+        <v>437.4</v>
       </c>
       <c r="G132">
-        <v>1287.35807365829</v>
+        <v>1345.21188425693</v>
       </c>
       <c r="H132">
-        <v>18238.9929823213</v>
+        <v>21593.0787825504</v>
       </c>
       <c r="I132">
         <v>6000</v>
@@ -8408,13 +8411,13 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L132">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="M132">
-        <v>1392.44</v>
+        <v>1392.512</v>
       </c>
       <c r="N132">
-        <v>3201.3</v>
+        <v>3201.328</v>
       </c>
       <c r="O132">
         <v>1819553.54</v>
@@ -8423,19 +8426,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8452,13 +8455,13 @@
         <v>52</v>
       </c>
       <c r="E133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F133">
         <v>0.01669</v>
       </c>
       <c r="G133">
-        <v>0.0340208997068763</v>
+        <v>0.034024357724167</v>
       </c>
       <c r="H133">
         <v>0.390994438041885</v>
@@ -8467,7 +8470,7 @@
         <v>0.14</v>
       </c>
       <c r="L133">
-        <v>0.02046</v>
+        <v>0.01775</v>
       </c>
       <c r="M133">
         <v>0.03703</v>
@@ -8482,19 +8485,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8511,13 +8514,13 @@
         <v>52</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F134">
         <v>0.01669</v>
       </c>
       <c r="G134">
-        <v>0.0340208997068763</v>
+        <v>0.034024357724167</v>
       </c>
       <c r="H134">
         <v>0.390994438041885</v>
@@ -8526,7 +8529,7 @@
         <v>0.14</v>
       </c>
       <c r="L134">
-        <v>0.02046</v>
+        <v>0.01775</v>
       </c>
       <c r="M134">
         <v>0.03703</v>
@@ -8541,19 +8544,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8570,13 +8573,13 @@
         <v>52</v>
       </c>
       <c r="E135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F135">
         <v>0.2305</v>
       </c>
       <c r="G135">
-        <v>0.312455312179283</v>
+        <v>0.312431982580922</v>
       </c>
       <c r="H135">
         <v>1.53</v>
@@ -8585,7 +8588,7 @@
         <v>0.9568</v>
       </c>
       <c r="L135">
-        <v>0.041</v>
+        <v>0.0465</v>
       </c>
       <c r="M135">
         <v>0.62164</v>
@@ -8600,19 +8603,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8629,13 +8632,13 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F136">
         <v>0.2305</v>
       </c>
       <c r="G136">
-        <v>0.312455312179283</v>
+        <v>0.312431982580922</v>
       </c>
       <c r="H136">
         <v>1.53</v>
@@ -8644,7 +8647,7 @@
         <v>0.9568</v>
       </c>
       <c r="L136">
-        <v>0.041</v>
+        <v>0.0465</v>
       </c>
       <c r="M136">
         <v>0.62164</v>
@@ -8659,19 +8662,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8685,13 +8688,13 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F137">
         <v>0.2565</v>
       </c>
       <c r="G137">
-        <v>0.344852211101623</v>
+        <v>0.344838628269768</v>
       </c>
       <c r="H137">
         <v>1.57</v>
@@ -8700,7 +8703,7 @@
         <v>1.004</v>
       </c>
       <c r="L137">
-        <v>0.067</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M137">
         <v>0.66576</v>
@@ -8715,19 +8718,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8741,13 +8744,13 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F138">
         <v>0.2565</v>
       </c>
       <c r="G138">
-        <v>0.344852211101623</v>
+        <v>0.344838628269768</v>
       </c>
       <c r="H138">
         <v>1.57</v>
@@ -8756,7 +8759,7 @@
         <v>1.004</v>
       </c>
       <c r="L138">
-        <v>0.067</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M138">
         <v>0.66576</v>
@@ -8771,19 +8774,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U138" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8797,7 +8800,7 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F139">
         <v>0.845</v>
@@ -8812,7 +8815,7 @@
         <v>1.734</v>
       </c>
       <c r="L139">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="M139">
         <v>1.1764</v>
@@ -8827,19 +8830,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8853,7 +8856,7 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F140">
         <v>0.845</v>
@@ -8868,7 +8871,7 @@
         <v>1.734</v>
       </c>
       <c r="L140">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="M140">
         <v>1.1764</v>
@@ -8883,19 +8886,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8909,7 +8912,7 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F141">
         <v>0.0775</v>
@@ -8924,7 +8927,7 @@
         <v>0.1478</v>
       </c>
       <c r="L141">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="M141">
         <v>0.1052</v>
@@ -8939,19 +8942,19 @@
         <v>5574964.69</v>
       </c>
       <c r="Q141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U141" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8965,7 +8968,7 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F142">
         <v>0.0775</v>
@@ -8980,7 +8983,7 @@
         <v>0.1478</v>
       </c>
       <c r="L142">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="M142">
         <v>0.1052</v>
@@ -8995,19 +8998,1028 @@
         <v>5574964.69</v>
       </c>
       <c r="Q142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" t="s">
+        <v>53</v>
+      </c>
+      <c r="E143" t="s">
+        <v>54</v>
+      </c>
+      <c r="F143">
+        <v>42</v>
+      </c>
+      <c r="G143">
+        <v>51.4046511627907</v>
+      </c>
+      <c r="H143">
+        <v>150</v>
+      </c>
+      <c r="I143">
+        <v>133.75</v>
+      </c>
+      <c r="L143">
+        <v>39</v>
+      </c>
+      <c r="M143">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N143">
+        <v>120.3</v>
+      </c>
+      <c r="O143">
+        <v>1819553.54</v>
+      </c>
+      <c r="P143">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>55</v>
+      </c>
+      <c r="R143" t="s">
+        <v>56</v>
+      </c>
+      <c r="S143" t="s">
+        <v>57</v>
+      </c>
+      <c r="T143" t="s">
+        <v>58</v>
+      </c>
+      <c r="U143" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" t="s">
+        <v>53</v>
+      </c>
+      <c r="E144" t="s">
+        <v>54</v>
+      </c>
+      <c r="F144">
+        <v>0.018</v>
+      </c>
+      <c r="G144">
+        <v>0.0288275862068966</v>
+      </c>
+      <c r="H144">
+        <v>0.205</v>
+      </c>
+      <c r="I144">
+        <v>0.0772</v>
+      </c>
+      <c r="L144">
+        <v>0.024</v>
+      </c>
+      <c r="M144">
+        <v>0.04</v>
+      </c>
+      <c r="N144">
+        <v>0.0553</v>
+      </c>
+      <c r="O144">
+        <v>1819553.54</v>
+      </c>
+      <c r="P144">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>55</v>
+      </c>
+      <c r="R144" t="s">
+        <v>56</v>
+      </c>
+      <c r="S144" t="s">
+        <v>57</v>
+      </c>
+      <c r="T144" t="s">
+        <v>58</v>
+      </c>
+      <c r="U144" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" t="s">
+        <v>54</v>
+      </c>
+      <c r="F145">
+        <v>0.018</v>
+      </c>
+      <c r="G145">
+        <v>0.0288275862068966</v>
+      </c>
+      <c r="H145">
+        <v>0.205</v>
+      </c>
+      <c r="I145">
+        <v>0.0772</v>
+      </c>
+      <c r="L145">
+        <v>0.024</v>
+      </c>
+      <c r="M145">
+        <v>0.04</v>
+      </c>
+      <c r="N145">
+        <v>0.0553</v>
+      </c>
+      <c r="O145">
+        <v>1819553.54</v>
+      </c>
+      <c r="P145">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>55</v>
+      </c>
+      <c r="R145" t="s">
+        <v>56</v>
+      </c>
+      <c r="S145" t="s">
+        <v>57</v>
+      </c>
+      <c r="T145" t="s">
+        <v>58</v>
+      </c>
+      <c r="U145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E146" t="s">
+        <v>54</v>
+      </c>
+      <c r="F146">
+        <v>427.4</v>
+      </c>
+      <c r="G146">
+        <v>1169.460160119</v>
+      </c>
+      <c r="H146">
+        <v>21593.0787825504</v>
+      </c>
+      <c r="I146">
+        <v>4458.08</v>
+      </c>
+      <c r="J146">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K146">
+        <v>67.2413793103448</v>
+      </c>
+      <c r="L146">
+        <v>474.2</v>
+      </c>
+      <c r="M146">
+        <v>1301.584</v>
+      </c>
+      <c r="N146">
+        <v>2521.504</v>
+      </c>
+      <c r="O146">
+        <v>1819553.54</v>
+      </c>
+      <c r="P146">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>55</v>
+      </c>
+      <c r="R146" t="s">
+        <v>56</v>
+      </c>
+      <c r="S146" t="s">
+        <v>57</v>
+      </c>
+      <c r="T146" t="s">
+        <v>58</v>
+      </c>
+      <c r="U146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" t="s">
+        <v>54</v>
+      </c>
+      <c r="F147">
+        <v>427.4</v>
+      </c>
+      <c r="G147">
+        <v>1169.460160119</v>
+      </c>
+      <c r="H147">
+        <v>21593.0787825504</v>
+      </c>
+      <c r="I147">
+        <v>4458.08</v>
+      </c>
+      <c r="J147">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K147">
+        <v>67.2413793103448</v>
+      </c>
+      <c r="L147">
+        <v>474.2</v>
+      </c>
+      <c r="M147">
+        <v>1301.584</v>
+      </c>
+      <c r="N147">
+        <v>2521.504</v>
+      </c>
+      <c r="O147">
+        <v>1819553.54</v>
+      </c>
+      <c r="P147">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>55</v>
+      </c>
+      <c r="R147" t="s">
+        <v>56</v>
+      </c>
+      <c r="S147" t="s">
+        <v>57</v>
+      </c>
+      <c r="T147" t="s">
+        <v>58</v>
+      </c>
+      <c r="U147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" t="s">
+        <v>53</v>
+      </c>
+      <c r="E148" t="s">
+        <v>54</v>
+      </c>
+      <c r="F148">
+        <v>427.4</v>
+      </c>
+      <c r="G148">
+        <v>1169.460160119</v>
+      </c>
+      <c r="H148">
+        <v>21593.0787825504</v>
+      </c>
+      <c r="I148">
+        <v>4458.08</v>
+      </c>
+      <c r="J148">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K148">
+        <v>67.2413793103448</v>
+      </c>
+      <c r="L148">
+        <v>474.2</v>
+      </c>
+      <c r="M148">
+        <v>1301.584</v>
+      </c>
+      <c r="N148">
+        <v>2521.504</v>
+      </c>
+      <c r="O148">
+        <v>1819553.54</v>
+      </c>
+      <c r="P148">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>55</v>
+      </c>
+      <c r="R148" t="s">
+        <v>56</v>
+      </c>
+      <c r="S148" t="s">
+        <v>57</v>
+      </c>
+      <c r="T148" t="s">
+        <v>58</v>
+      </c>
+      <c r="U148" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" t="s">
+        <v>53</v>
+      </c>
+      <c r="E149" t="s">
+        <v>54</v>
+      </c>
+      <c r="F149">
+        <v>427.4</v>
+      </c>
+      <c r="G149">
+        <v>1169.460160119</v>
+      </c>
+      <c r="H149">
+        <v>21593.0787825504</v>
+      </c>
+      <c r="I149">
+        <v>4458.08</v>
+      </c>
+      <c r="J149">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K149">
+        <v>67.2413793103448</v>
+      </c>
+      <c r="L149">
+        <v>474.2</v>
+      </c>
+      <c r="M149">
+        <v>1301.584</v>
+      </c>
+      <c r="N149">
+        <v>2521.504</v>
+      </c>
+      <c r="O149">
+        <v>1819553.54</v>
+      </c>
+      <c r="P149">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>55</v>
+      </c>
+      <c r="R149" t="s">
+        <v>56</v>
+      </c>
+      <c r="S149" t="s">
+        <v>57</v>
+      </c>
+      <c r="T149" t="s">
+        <v>58</v>
+      </c>
+      <c r="U149" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150">
+        <v>0.01699</v>
+      </c>
+      <c r="G150">
+        <v>0.0252864067657311</v>
+      </c>
+      <c r="H150">
+        <v>0.210051211730856</v>
+      </c>
+      <c r="I150">
+        <v>0.08853</v>
+      </c>
+      <c r="L150">
+        <v>0.01764</v>
+      </c>
+      <c r="M150">
+        <v>0.02988</v>
+      </c>
+      <c r="N150">
+        <v>0.07169</v>
+      </c>
+      <c r="O150">
+        <v>1819553.54</v>
+      </c>
+      <c r="P150">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>55</v>
+      </c>
+      <c r="R150" t="s">
+        <v>56</v>
+      </c>
+      <c r="S150" t="s">
+        <v>57</v>
+      </c>
+      <c r="T150" t="s">
+        <v>58</v>
+      </c>
+      <c r="U150" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D151" t="s">
+        <v>53</v>
+      </c>
+      <c r="E151" t="s">
+        <v>54</v>
+      </c>
+      <c r="F151">
+        <v>0.01699</v>
+      </c>
+      <c r="G151">
+        <v>0.0252864067657311</v>
+      </c>
+      <c r="H151">
+        <v>0.210051211730856</v>
+      </c>
+      <c r="I151">
+        <v>0.08853</v>
+      </c>
+      <c r="L151">
+        <v>0.01764</v>
+      </c>
+      <c r="M151">
+        <v>0.02988</v>
+      </c>
+      <c r="N151">
+        <v>0.07169</v>
+      </c>
+      <c r="O151">
+        <v>1819553.54</v>
+      </c>
+      <c r="P151">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>55</v>
+      </c>
+      <c r="R151" t="s">
+        <v>56</v>
+      </c>
+      <c r="S151" t="s">
+        <v>57</v>
+      </c>
+      <c r="T151" t="s">
+        <v>58</v>
+      </c>
+      <c r="U151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>44</v>
+      </c>
+      <c r="D152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152">
+        <v>0.24</v>
+      </c>
+      <c r="G152">
+        <v>0.298850300499195</v>
+      </c>
+      <c r="H152">
+        <v>1.53</v>
+      </c>
+      <c r="I152">
+        <v>0.871</v>
+      </c>
+      <c r="L152">
+        <v>0.0465</v>
+      </c>
+      <c r="M152">
+        <v>0.60788</v>
+      </c>
+      <c r="N152">
+        <v>0.7526</v>
+      </c>
+      <c r="O152">
+        <v>1819553.54</v>
+      </c>
+      <c r="P152">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>55</v>
+      </c>
+      <c r="R152" t="s">
+        <v>56</v>
+      </c>
+      <c r="S152" t="s">
+        <v>57</v>
+      </c>
+      <c r="T152" t="s">
+        <v>58</v>
+      </c>
+      <c r="U152" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>32</v>
+      </c>
+      <c r="C153" t="s">
+        <v>44</v>
+      </c>
+      <c r="D153" t="s">
+        <v>53</v>
+      </c>
+      <c r="E153" t="s">
+        <v>54</v>
+      </c>
+      <c r="F153">
+        <v>0.24</v>
+      </c>
+      <c r="G153">
+        <v>0.298850300499195</v>
+      </c>
+      <c r="H153">
+        <v>1.53</v>
+      </c>
+      <c r="I153">
+        <v>0.871</v>
+      </c>
+      <c r="L153">
+        <v>0.0465</v>
+      </c>
+      <c r="M153">
+        <v>0.60788</v>
+      </c>
+      <c r="N153">
+        <v>0.7526</v>
+      </c>
+      <c r="O153">
+        <v>1819553.54</v>
+      </c>
+      <c r="P153">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>55</v>
+      </c>
+      <c r="R153" t="s">
+        <v>56</v>
+      </c>
+      <c r="S153" t="s">
+        <v>57</v>
+      </c>
+      <c r="T153" t="s">
+        <v>58</v>
+      </c>
+      <c r="U153" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154">
+        <v>0.2565</v>
+      </c>
+      <c r="G154">
+        <v>0.330681034482759</v>
+      </c>
+      <c r="H154">
+        <v>1.57</v>
+      </c>
+      <c r="I154">
+        <v>0.9372</v>
+      </c>
+      <c r="L154">
+        <v>0.07775</v>
+      </c>
+      <c r="M154">
+        <v>0.65748</v>
+      </c>
+      <c r="N154">
+        <v>0.78266</v>
+      </c>
+      <c r="O154">
+        <v>1819553.54</v>
+      </c>
+      <c r="P154">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>55</v>
+      </c>
+      <c r="R154" t="s">
+        <v>56</v>
+      </c>
+      <c r="S154" t="s">
+        <v>57</v>
+      </c>
+      <c r="T154" t="s">
+        <v>58</v>
+      </c>
+      <c r="U154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155">
+        <v>0.2565</v>
+      </c>
+      <c r="G155">
+        <v>0.330681034482759</v>
+      </c>
+      <c r="H155">
+        <v>1.57</v>
+      </c>
+      <c r="I155">
+        <v>0.9372</v>
+      </c>
+      <c r="L155">
+        <v>0.07775</v>
+      </c>
+      <c r="M155">
+        <v>0.65748</v>
+      </c>
+      <c r="N155">
+        <v>0.78266</v>
+      </c>
+      <c r="O155">
+        <v>1819553.54</v>
+      </c>
+      <c r="P155">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>55</v>
+      </c>
+      <c r="R155" t="s">
+        <v>56</v>
+      </c>
+      <c r="S155" t="s">
+        <v>57</v>
+      </c>
+      <c r="T155" t="s">
+        <v>58</v>
+      </c>
+      <c r="U155" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" t="s">
+        <v>54</v>
+      </c>
+      <c r="F156">
+        <v>0.86</v>
+      </c>
+      <c r="G156">
+        <v>1.11086206896552</v>
+      </c>
+      <c r="H156">
+        <v>12.4</v>
+      </c>
+      <c r="I156">
+        <v>1.59</v>
+      </c>
+      <c r="L156">
+        <v>0.77</v>
+      </c>
+      <c r="M156">
+        <v>1.1728</v>
+      </c>
+      <c r="N156">
+        <v>1.506</v>
+      </c>
+      <c r="O156">
+        <v>1819553.54</v>
+      </c>
+      <c r="P156">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>55</v>
+      </c>
+      <c r="R156" t="s">
+        <v>56</v>
+      </c>
+      <c r="S156" t="s">
+        <v>57</v>
+      </c>
+      <c r="T156" t="s">
+        <v>58</v>
+      </c>
+      <c r="U156" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" t="s">
+        <v>54</v>
+      </c>
+      <c r="F157">
+        <v>0.86</v>
+      </c>
+      <c r="G157">
+        <v>1.11086206896552</v>
+      </c>
+      <c r="H157">
+        <v>12.4</v>
+      </c>
+      <c r="I157">
+        <v>1.59</v>
+      </c>
+      <c r="L157">
+        <v>0.77</v>
+      </c>
+      <c r="M157">
+        <v>1.1728</v>
+      </c>
+      <c r="N157">
+        <v>1.506</v>
+      </c>
+      <c r="O157">
+        <v>1819553.54</v>
+      </c>
+      <c r="P157">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>55</v>
+      </c>
+      <c r="R157" t="s">
+        <v>56</v>
+      </c>
+      <c r="S157" t="s">
+        <v>57</v>
+      </c>
+      <c r="T157" t="s">
+        <v>58</v>
+      </c>
+      <c r="U157" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" t="s">
+        <v>53</v>
+      </c>
+      <c r="E158" t="s">
+        <v>54</v>
+      </c>
+      <c r="F158">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G158">
+        <v>0.0971206896551724</v>
+      </c>
+      <c r="H158">
+        <v>0.371</v>
+      </c>
+      <c r="I158">
+        <v>0.2126</v>
+      </c>
+      <c r="L158">
+        <v>0.0935</v>
+      </c>
+      <c r="M158">
+        <v>0.12256</v>
+      </c>
+      <c r="N158">
+        <v>0.18364</v>
+      </c>
+      <c r="O158">
+        <v>1819553.54</v>
+      </c>
+      <c r="P158">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>55</v>
+      </c>
+      <c r="R158" t="s">
+        <v>56</v>
+      </c>
+      <c r="S158" t="s">
+        <v>57</v>
+      </c>
+      <c r="T158" t="s">
+        <v>58</v>
+      </c>
+      <c r="U158" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F159">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G159">
+        <v>0.0971206896551724</v>
+      </c>
+      <c r="H159">
+        <v>0.371</v>
+      </c>
+      <c r="I159">
+        <v>0.2126</v>
+      </c>
+      <c r="L159">
+        <v>0.0935</v>
+      </c>
+      <c r="M159">
+        <v>0.12256</v>
+      </c>
+      <c r="N159">
+        <v>0.18364</v>
+      </c>
+      <c r="O159">
+        <v>1819553.54</v>
+      </c>
+      <c r="P159">
+        <v>5574964.69</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>55</v>
+      </c>
+      <c r="R159" t="s">
+        <v>56</v>
+      </c>
+      <c r="S159" t="s">
+        <v>57</v>
+      </c>
+      <c r="T159" t="s">
+        <v>58</v>
+      </c>
+      <c r="U159" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
